--- a/public/file.xlsx
+++ b/public/file.xlsx
@@ -4544,14 +4544,6 @@
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A34:C34"/>
-  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>

--- a/public/file.xlsx
+++ b/public/file.xlsx
@@ -303,7 +303,7 @@
 &lt;/table&gt;</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015516.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015516.jpg</t>
   </si>
   <si>
     <t>015639</t>
@@ -430,7 +430,7 @@
 &lt;/table&gt;</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015639.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015639.jpg</t>
   </si>
   <si>
     <t>015653</t>
@@ -439,7 +439,7 @@
     <t>12 кг</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015653.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015653.jpg</t>
   </si>
   <si>
     <t>015592</t>
@@ -569,13 +569,13 @@
 &lt;/table&gt;</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015592.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015592.jpg</t>
   </si>
   <si>
     <t>015615</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015615.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015615.jpg</t>
   </si>
   <si>
     <t>015578</t>
@@ -702,7 +702,7 @@
 &lt;/table&gt;</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015578.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015578.jpg</t>
   </si>
   <si>
     <t>Classic Nature Line</t>
@@ -861,7 +861,7 @@
 &lt;/table&gt;</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/8296002.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/8296002.jpg</t>
   </si>
   <si>
     <t>015417</t>
@@ -870,7 +870,7 @@
     <t>15 кг</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015417.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015417.jpg</t>
   </si>
   <si>
     <t>Chicopee CNL Adult Active Chicken &amp; Rice</t>
@@ -994,13 +994,13 @@
 &lt;/table&gt;</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/8294002.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/8294002.jpg</t>
   </si>
   <si>
     <t>015493</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015493.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015493.jpg</t>
   </si>
   <si>
     <t>015233</t>
@@ -1127,13 +1127,13 @@
 &lt;/table&gt;</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015233.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015233.jpg</t>
   </si>
   <si>
     <t>015257</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015257.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015257.jpg</t>
   </si>
   <si>
     <t>015271</t>
@@ -1257,13 +1257,13 @@
 &lt;/table&gt;</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015271.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015271.jpg</t>
   </si>
   <si>
     <t>015295</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015295.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015295.jpg</t>
   </si>
   <si>
     <t>Chicopee CNL Senior Soft Chicken &amp; Rice</t>
@@ -1451,10 +1451,10 @@
 &lt;/table&gt;</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/8297002.jpg</t>
-  </si>
-  <si>
-    <t>http://www.chicopee.in.ua/storage/upload/8297015.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/8297002.jpg</t>
+  </si>
+  <si>
+    <t>https://www.chicopee.in.ua/storage/upload/8297015.jpg</t>
   </si>
   <si>
     <t>015110</t>
@@ -1704,13 +1704,13 @@
 &lt;/table&gt;</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015110.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015110.jpg</t>
   </si>
   <si>
     <t>015134</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015134.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015134.jpg</t>
   </si>
   <si>
     <t>015080</t>
@@ -1867,7 +1867,7 @@
 &lt;/table&gt;</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015080.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015080.jpg</t>
   </si>
   <si>
     <t>015066</t>
@@ -1876,7 +1876,7 @@
     <t>0.5 кг</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015066.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015066.jpg</t>
   </si>
   <si>
     <t>015196</t>
@@ -2000,13 +2000,13 @@
 &lt;/table&gt;</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015196.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015196.jpg</t>
   </si>
   <si>
     <t>015219</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015219.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015219.jpg</t>
   </si>
   <si>
     <t>015158</t>
@@ -2259,13 +2259,13 @@
 &lt;/table&gt;</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015158.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015158.jpg</t>
   </si>
   <si>
     <t>015172</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015172.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015172.jpg</t>
   </si>
   <si>
     <t>015356</t>
@@ -2397,13 +2397,13 @@
 &lt;/table&gt;</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015356.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015356.jpg</t>
   </si>
   <si>
     <t>015370</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015370.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015370.jpg</t>
   </si>
   <si>
     <t>015318</t>
@@ -2532,13 +2532,13 @@
 &lt;/table&gt;</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015318.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015318.jpg</t>
   </si>
   <si>
     <t>015332</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/015332.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/015332.jpg</t>
   </si>
   <si>
     <t>Pro Nature Line</t>
@@ -2685,7 +2685,7 @@
 &lt;/table&gt;</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/014380.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/014380.jpg</t>
   </si>
   <si>
     <t>Chicopee PNL Adult</t>
@@ -2823,7 +2823,7 @@
 &lt;/table&gt;</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/93033200.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/93033200.jpg</t>
   </si>
   <si>
     <t>014366</t>
@@ -3063,7 +3063,7 @@
 &lt;/table&gt;</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/014366.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/014366.jpg</t>
   </si>
   <si>
     <t>Chicopee PNL Active</t>
@@ -3192,7 +3192,7 @@
 &lt;/table&gt;</t>
   </si>
   <si>
-    <t>http://www.chicopee.in.ua/storage/upload/58603200.jpg</t>
+    <t>https://www.chicopee.in.ua/storage/upload/58603200.jpg</t>
   </si>
 </sst>
 </file>

--- a/public/file.xlsx
+++ b/public/file.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
   <si>
     <t>артикул</t>
   </si>
@@ -68,74 +68,76 @@
     <t>2 кг</t>
   </si>
   <si>
-    <t>цуценя</t>
-  </si>
-  <si>
-    <t>малий,великий,середній</t>
-  </si>
-  <si>
-    <t>здорові зуби і порожнину рота,міцні кістки і суглоби,натуральні інгредієнти,зроблено в Німеччині,сильний імунітет,здорова шкіра і шерсть</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Разом з кормом лінійки &lt;strong&gt;Holistic&lt;/strong&gt;&lt;strong&gt;Nature Line від Chicopee&lt;/strong&gt;,&amp;nbsp; Ваш вихованець буде отримувати всі необхідні вітаміни і мінерали. Ідеальний баланс раціону допоможе Вашій собаці бути завжди здоровою і доглянутою.&lt;/p&gt;
+    <t>щенок</t>
+  </si>
+  <si>
+    <t>мелкий,большой,</t>
+  </si>
+  <si>
+    <t>здоровые зубы и полость рта,крепкие кости и суставы,натуральные ингредиенты,сделано в Германии,сильный иммунитет,здоровая кожа и шерсть</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Вместе с кормом линейки Holistic Nature Line от Chicopee, Ваш питомец будет получать все необходимые витамины и минералы. Идеальный баланс рациона поможет Вашей собаке быть всегда здоровой и ухоженной.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Mobility complex&lt;/strong&gt;- являє собою комбінацію натурального екстракту зеленого губчатого (новозеландського) молюска і високоефективного глюкозаміну і хондроітінсульфата. Вони допомагають в правильному формуванні та функціонуванні кісток.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Mobility complex &lt;/strong&gt; - представляет собой комбинацию натурального экстракта зеленого губчатого (новозеландского) моллюска и высокоэффективного глюкозамина и хондроитинсульфата. Они помогают в правильном формировании и функционировании костей.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Natural cell protection&lt;/strong&gt;- важливий природний антиоксидантний комплекс з різних ягід, висушених природним шляхом журавлина і чорниця, також вітамін Е і селен, захищають клітини організму від передчасного старіння і сприяють активному метаболізму.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Natural cell protection &lt;/strong&gt; - важный природный антиоксидантный комплекс из разных ягод, высушенных естественным путем клюква и черника, также витамин Е и селен, защищают клетки организма от преждевременного старения и способствуют активному метаболизму.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Silky coat complex&lt;/strong&gt;- поєднання натурального лососевого масла, лляного насіння і високоякісного криля. Вони містять важливі омега-жирні кислоти, так необхідні розвитку блискучої і шовковистої шерсті і гладкої шкіри. Окрім того, кріль є натуральним джерелом &amp;laquo;хондропротекторів&amp;raquo;, які так необхідні суглобам.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Silky coat complex &lt;/strong&gt; - сочетание натурального лососевого масла, льняного семени и высококачественного криля. Они содержат важные омега-жирные кислоты, так необходимых для развития блестящей и шелковистой шерсти и гладкой кожи. Кроме того, кролик является натуральным источником &amp;laquo;хондропротекторов&amp;raquo;, которые так необходимы суставам.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Stable intestinal flora&lt;/strong&gt;- Цикорій є джерелом інуліну, який підтримує баланс флори в кишечнику. Збалансована кишкова флора є основою стабільного травлення. Крім того, цикорій підвищує настрій Вашому вихованцеві.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Stable intestinal flora &lt;/strong&gt; - Цикорий является источником инулина, который поддерживает баланс флоры в кишечнике. Сбалансированная кишечная флора является основой стабильного пищеварения. Кроме того, цикорий повышает настроение Вашему питомцу.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Soft kibble&lt;/strong&gt;- завдяки напіввологості корм володіє особливим смаком і добре засвоюється.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;для цуценят з ягням і картоплею&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;як основний і додатковий корм для цуценят до 12 місяців життя, всіх порід, добре підходить для цуценят з чутливим травленням&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Склад:&lt;/strong&gt; Білок з м&amp;#39;яса птиці (дегідратований і гідролізований, 25%), картопля (дегідратований, 22%), жир свійської птиці, картопляний крохмаль, білок з м&amp;#39;яса ягняти (висушений 7%), горох (дегідратований), бурякова пульпа (без цукру ), канадська сочевиця (висушена, 3%), лляне насіння, оселедець (висушений, 2%), дріжджі (висушені, 1% з бета-глюкан 0.06%), масло лосося (1%), криль (висушений, 1%) , яєчний порошок, фосфат монокальцій, селера (дегідратований), морква (дегідратований), томати (дегідратований), яблука (дегідратований), журавлина (Дегідратірованной, 0.15%), екс Ракта зеленого губчатого молюска (0.1%), хлорид натрію, морські водорості (висушені), чорниця (дегідратірованной, 0.08%), глюкозамін (0.06%), квітки чорнобривців (дегідратований), юка (дегідратований) , хондроїтин сульфат (0.01%).&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Soft kibble &lt;/strong&gt; - благодаря напиввологости корм обладает особым вкусом и хорошо усваивается.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;для щенков с ягненком и картофелем&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;как основной и дополнительный корм для щенков до 12 месяцев жизни, всех пород, хорошо подходит для щенков с чувствительным пищеварением&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Состав:&lt;/strong&gt; Белок из мяса птицы (дегидратированный и гидролизованный, 25%), картофель (дегидратированный, 22%), жир домашней птицы, картофельный крахмал, белок из мяса ягненка (высушенный 7%), горох (дегидратированный), свекольная пульпа (без сахара), канадская чечевица (высушенная, 3%), льняное семя, сельдь (высушенный, 2%), дрожжи (высушенные, 1% с бета-глюкан 0.06%) , масло лосося (1%), криль (высушенный, 1%), яичный порошок, фосфат монокальций, сельдерей (дегидратированный), морковь (дегидратированный), томаты (дегидратированный), яблоки (дегидратированный), клюква (дегидратированной, 0.15%), экс Ракта зеленого губчатого моллюска (0.1%), хлорид натрия, морские водоросли (высушенные), черника (дегидратированной, 0.08%), глюкозамин (0.06%), цветки бархатцев (дегидратированный), юкка (дегидратированный), хондроитин сульфат (0.01%).&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Хімічний склад:&lt;/strong&gt; сирий протеїн-29,0%; сирої жир-18,0%; сира клітковина-2,4%; волога 10,0%; сира зола-6,9%; кальцій-1,45%; фосфор-1,1%; Омега 3-0,9%; Омега 6-2,9%.&lt;/p&gt;
+&lt;strong&gt;Химический состав:&lt;/strong&gt; сырой протеин-29,0%; сырой жир-18,0%; сырая клетчатка-2,4%; влага 10,0%; сырая зола-6,9%; кальций-1,45%; фосфор-1,1%; Омега 3-0,9%; Омега 6-2,9%.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Основні добавки:&lt;/strong&gt; Харчові добавки на 1 кг корму: вітамін А-26000 МО вітамін Д3-1200 МО вітамін Е-650 мг Біотин-520 мкг вітамін С-100 мг., Мідь (сульфат міді II, пентагідрат) 10,0 мг цинк ( оксид цинку) -40,0 мг цинк (хелат цинку з гідрату амінокислот) -75,0 мг марганець (хелат марганцю з гідрату амінокислот) -5,0 мг марганець (оксид марганцю) -5,0 мг йод (кальцію йодид, зневоднений ) -2,0 мг селен (селеніт натрію) -0,2. мг.&lt;/p&gt;</t>
+&lt;strong&gt;Основные добавки:&lt;/strong&gt; Пищевые добавки на 1 кг корма: витамин А-26000 МЕ витамин Д3-1200 МЕ витамин Е-650 мг Биотин-520 мкг витамин С-100 мг., медь (сульфат меди II, пентагидрат) 10,0 мг цинк (оксид цинка) -40,0 мг цинк (хелат цинка из гидрата аминокислот) -75,0 мг марганец (хелат марганца из гидрата аминокислот) -5,0 мг марганец (оксид марганца) -5,0 мг йод (кальция йодид, обезвоженный) -2,0 мг селен (селенит натрия) -0,2. мг.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;table align="center" cellpadding="5"&gt;
 	&lt;tbody&gt;
 		&lt;tr&gt;
 			&lt;td rowspan="" style="text-align:center"&gt;
-			&lt;p&gt;Puppy weight (kg)&lt;/p&gt;
+			&lt;p&gt;Вес щенка (кг)&lt;/p&gt;
 			&lt;/td&gt;
 			&lt;td colspan="6" style="text-align:center"&gt;
-			&lt;p&gt;Recommended servings per day in grams&lt;/p&gt;
+			&lt;p&gt;Рекомендуемые порции указаны на один день в граммах&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;&amp;nbsp;&lt;/td&gt;
-			&lt;td colspan="6" style="text-align:center"&gt;Вік цуценя&lt;/td&gt;
+			&lt;td colspan="6" style="text-align:center"&gt;
+			&lt;p&gt;Возраст щенка&lt;/p&gt;
+			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;&amp;nbsp;&lt;/td&gt;
 			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;2 місяці&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;3 місяці&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;4 місяці&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;5&amp;ndash;6 months&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;7&amp;ndash;9 months&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;10&amp;ndash;12 months&lt;/p&gt;
+			&lt;p&gt;2 месяца&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;3 месяца&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;4 месяца&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;5&amp;ndash;6 месяцев&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;7&amp;ndash;9 месяцев&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;10&amp;ndash;12 месяцев&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
@@ -312,30 +314,33 @@
     <t>Chicopee HNL Soft Adult Ostrich &amp; Potato</t>
   </si>
   <si>
-    <t>міцні кістки і суглоби,натуральні інгредієнти,зроблено в Німеччині,сильна мускулатура</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;для дорослих собак з страусом і картоплею&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;як основний та додатковий корм для дорослих собак від 1 року життя, всіх порід, який добре підходить для собак з чутливим травленням.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Склад: &lt;/strong&gt;білок з м&amp;rsquo;яса страуса (висушений, 20%), картопляне борошно (20%), жир свійської птиці, солодка картопля (дегідратована, 8%), картопляні пластівці, горох (дегідратований), гороховий білок, бурякова пульпа (без цукру), льняне насіння (3%), картопляний білок, гідролізований білок, дріжджі (висушені, 1.5%), масло лосося (0.5%), цикорій (висушений, 0.2%), морські водорості (висушені), юкка (дегідратована), дика кропива (висушена), листя ожини (висушені), деревій (висушений), фенхель (висушений), кмин (висушений), квітки ромашки (висушені), омела (висушена), корінь Генціану (висушений), золототисячник звичайний (висушений).&lt;/p&gt;
+    <t>мелкий,,</t>
+  </si>
+  <si>
+    <t>крепкие кости и суставы,натуральные ингредиенты,сделано в Германии,сильная мускулатура</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;для взрослых собак с страусом и картофелем&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;как основной и дополнительный корм для взрослых собак от 1 года жизни, всех пород, хорошо подходит для собак с чувствительным пищеварением.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Состав:&lt;/strong&gt; белок из мяса страуса (высушенный, 20%), картофельную муку (20%), жир домашней птицы, сладкий картофель (дегидратированной, 8%), картофельные хлопья, горох ( дегидратированный), гороховый белок, свекольная пульпа (без сахара), льняное семя (3%), картофельный белок, гидролизованный белок, дрожжи (высушенные, 1.5%), масло лосося (0.5%), цикорий (высушенный, 0.2%), морские водоросли (высушенные), юкка (дегидратированный), дикая крапива (высушенная), листья ежевики (высушенные), тысячелистник (высушенный), фенхель (высушенный), тмин (высушенный), цветки ромашки (высушенные), омела (высушенная) , Корень генциан (высушенный), золототысячник обыкновенный (высушенный).&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Хімічний склад:&lt;/strong&gt; сирий протеїн-23,0%; сирий жир-13,0%; сира клітковина-2,5%; волога-18,0%; сира зола-6,6%; кальцій-1,0%; фосфор-0,75%; Омега 3-0,85%; Омега 6-2,0%.&lt;/p&gt;
+&lt;strong&gt;Химический состав:&lt;/strong&gt; сырой протеин-23,0%; сырой жир-13,0%; сырая клетчатка-2,5%; влага-18,0%; сырая зола-6,6%; кальций-1,0%; фосфор-0,75%; Омега 3-0,85%; Омега 6-2,0%.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Основні добавки:&lt;/strong&gt; харчові добавки на 1 кг корму: вітамін А-12000 МО; вітамін Д3-1200 МО; вітамін Е-110 мг.; мідь (сульфат міді II, пентагідрат)-10,0 мг; цинк (оксид цинку)-70,0 мг; йод (кальцію йодид, зневоднений)-2,0 мг; селен (селеніт натрію)-0,2 мг&lt;/p&gt;</t>
+&lt;strong&gt;Основные добавки:&lt;/strong&gt; пищевые добавки на 1 кг корма: витамин А-12000 МЕ витамин Д3-1200 МЕ витамин Е-110 мг .; медь (сульфат меди II, пентагидрат) 10,0 мг цинк (оксид цинка) -70,0 мг йод (кальция йодид, обезвоженный) -2,0 мг селен (селенит натрия) -0,2 мг&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;table&gt;
 	&lt;tbody&gt;
 		&lt;tr&gt;
 			&lt;td&gt;
-			&lt;p&gt;&lt;strong&gt;Вага собаки (кг)&lt;/strong&gt;&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td&gt;
-			&lt;p&gt;&lt;strong&gt;Рекомендовані порції вказані на один день в грамах &lt;/strong&gt;&lt;/p&gt;
+			&lt;p&gt;&lt;strong&gt;Вес собаки (кг)&lt;/strong&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td&gt;
+			&lt;p&gt;&lt;strong&gt;Рекомендуемые порции указаны на один день в граммах&lt;/strong&gt;&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
@@ -436,9 +441,6 @@
     <t>015653</t>
   </si>
   <si>
-    <t>12 кг</t>
-  </si>
-  <si>
     <t>https://www.chicopee.in.ua/storage/upload/015653.jpg</t>
   </si>
   <si>
@@ -448,33 +450,33 @@
     <t>Chicopee HNL Adult Lamb &amp; Potato</t>
   </si>
   <si>
-    <t>дорослий</t>
-  </si>
-  <si>
-    <t>великий,середній,малий</t>
-  </si>
-  <si>
-    <t>міцні кістки і суглоби,натуральні інгредієнти,зроблено в Німеччині,сильний імунітет,здорова шкіра і шерсть,правильне травлення</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;для дорослих собак з ягням і картоплею&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Склад:&lt;/strong&gt; білок з м&amp;rsquo;яса ягняти (висушений, 20%), картопля (дегідратована, 20%), картопляний крохмал, білок з м&amp;rsquo;яса птиці (дегідратований і гідролізований 10.5%), горох (дегідратований), жир свійської птиці, бурякова пульпа (без цукру), канадська сочевиця (висушена, 3%), льняне насіння (2.5%), дріжджі (висушені, 2% з бета-глюкан 0.04%), масло лосося (1%), криль (висушений, 1%), селера (дегідратована), морква (дегідратована), томати (дегідратовані), яблука (дегідратовані), журавлина (дегідратована, 0.15%), екстракт зеленoгo губчатoго молюска (0.1%), хлорид натрію, чорниця (дегідратована, 0.08%), глюкозамін (0.06%), морські водорості (висушені), квітки календули (дегідратовані), юккa (дегідратована), хондроїтин сульфат (0.01%).&lt;/p&gt;
+    <t>взрослый</t>
+  </si>
+  <si>
+    <t>большой,средний,мелкий</t>
+  </si>
+  <si>
+    <t>крепкие кости и суставы,натуральные ингредиенты,сделано в Германии,сильный иммунитет,здоровая кожа и шерсть,правильное пищеварение</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;для взрослых собак с ягненком и картофелем&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Состав:&lt;/strong&gt; белок из мяса ягненка (высушенный, 20%), картофель (дегидратированный, 20%), картофельный крахмал, белок из мяса птицы (дегидратированный и гидролизованный 10.5%), горох (дегидратированный), жир домашней птицы, свекольная пульпа (без сахара), канадская чечевица (высушенная, 3%), льняное семя (2.5%), дрожжи (высушенные, 2% с бета-глюкан 0.04%), масло лосося (1 %), криль (высушенный, 1%), сельдерей (дегидратированный), морковь (дегидратированный), томаты (дегидратированный), яблоки (дегидратированный), клюква (дегидратированной, 0.15%), экстракт зеленoгo губчатoго моллюска (0.1%), хлорид натрия , черный я (дегидратированной, 0.08%), глюкозамин (0.06%), морские водоросли (высушенные), цветки календулы (дегидратированный), юккa (дегидратированный), хондроитин сульфат (0.01%).&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Хімічний склад:&lt;/strong&gt; сирий протеїн-25,0%; сирий жир-15,0%; сира клітковина-2,5%; волога-10,0%; сира зола-7,5%; кальцій-1,5%; фосфор-1,1%; Омега 3-0,75%; Омега 6-2,1%.&lt;/p&gt;
+&lt;strong&gt;Химический состав:&lt;/strong&gt; сырой протеин-25,0%; сырой жир 15,0%; сырая клетчатка-2,5%; влага 10,0%; сырая зола-7,5%; кальций-1,5%; фосфор-1,1%; Омега 3-0,75%; Омега 6-2,1%.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Основні добавки:&lt;/strong&gt; харчові добавки на 1 кг корму: вітамін А-25000 МО; вітамін Д3-1200 МО; вітамін Е-600 мг; Біотин-500 мкг; вітамін С-100 мг, мідь (сульфат міді II, пентагідрат)-10,0 мг; цинк (оксид цинку)-40,0 мг; цинк (хелат цинку з гідрату амінокислот)-75,0 мг; марганець (хелат марганцю з гідрату амінокислот)-5,0 мг; марганець (оксид марганцю)-5,0 мг; йод (кальцію йодид, зневоднений)-2,0 мг; селен (селеніт натрію)-0,2 мг.&lt;/p&gt;</t>
+&lt;strong&gt;Основные добавки:&lt;/strong&gt; пищевые добавки на 1 кг корма: витамин А-25000 МЕ витамин Д3-1200 МЕ витамин Е-600 мг Биотин-500 мкг витамин С-100 мг, медь (сульфат меди II, пентагидрат) 10,0 мг цинк (оксид цинка) -40,0 мг цинк (хелат цинка из гидрата аминокислот) -75,0 мг марганец (хелат марганца из гидрата аминокислот) -5,0 мг марганец (оксид марганца) -5,0 мг йод (кальция йодид, обезвоженный) -2,0 мг селен (селенит натрия) -0,2 мг.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;table align="center" cellpadding="5"&gt;
 	&lt;tbody&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;&lt;strong&gt;Вага собаки (кг)&lt;/strong&gt;&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;&lt;strong&gt;Рекомендовані порції вказані на один день в грамах &lt;/strong&gt;&lt;/p&gt;
+			&lt;p&gt;&lt;strong&gt;Вес собаки (кг)&lt;/strong&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;&lt;strong&gt;Рекомендуемые порции указаны на один день в граммах&lt;/strong&gt;&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
@@ -575,6 +577,9 @@
     <t>015615</t>
   </si>
   <si>
+    <t>12 кг</t>
+  </si>
+  <si>
     <t>https://www.chicopee.in.ua/storage/upload/015615.jpg</t>
   </si>
   <si>
@@ -584,31 +589,32 @@
     <t>Chicopee HNL Active Salmon &amp; Potato</t>
   </si>
   <si>
-    <t>міцні кістки і суглоби,натуральні інгредієнти,зроблено в Німеччині,сильна мускулатура,сильний імунітет,здорова шкіра і шерсть</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;для дорослих активних собак з лососем і картоплею&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;як основний та додатковий корм для дорослих собак від 1 року життя, всіх порід, з підвищеним рівнем активності.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Склад:&lt;/strong&gt; лосось (висушений, 21%), білок з м&amp;rsquo;яса птиці (дегідратований і гідролізований, 15%), картопляний крохмаль, жир свійської птиці, картопля (дегідратована, 20%), горох (дегідратований), бурякова пульпа (без цукру), канадська сочевиця (висушена, 3%), льняне насіння (2.5%), масло лосося (1%), криль (висушений, 1%), дріжджі (висушені, 0.5% з бета-глюкан 0.04%), селера (дегідратована), морква (дегідратована), томати (дегідратовані), яблука (дегідратовані), журавлина (дегідратована, 0.15%), екстракт зеленого губчатого молюска (0.1%), хлорид натрію чорниця (дегідратована ,0.08%), морські водорості (висушені), глюкозамін (0.06%), квітки календули (дегідратовані), юкка (дегідратована), хондроїтин сульфат (0.01%).&lt;/p&gt;
+    <t>мелкий,большой,средний</t>
+  </si>
+  <si>
+    <t>крепкие кости и суставы,натуральные ингредиенты,сделано в Германии,сильная мускулатура,сильный иммунитет,здоровая кожа и шерсть</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;для взрослых активных собак с лососем и картофелем&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;как основной и дополнительный корм для взрослых собак от 1 года жизни, всех пород с повышенным уровнем активности.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Состав:&lt;/strong&gt; лосось (высушенный, 21%), белок из мяса птицы (дегидратированный и гидролизованный, 15%), картофельный крахмал, жир домашней птицы, картофель (дегидратированный, 20%), горох (дегидратированный), свекольная пульпа (без сахара), канадская чечевица (высушенная, 3%), льняное семя (2.5%), масло лосося (1%), криль (высушенный, 1%), дрожжи (высушенные, 0.5% с бета-глюкан 0.04%), сельдерей (дегидратированный), морковь (дегидратированный), томаты (дегидратированный), яблоки (дегидратированный), клюква (дегидратированной, 0.15%), экстракт зеленого губчатого моллюска (0.1%), хлорид натрия черника (дегидратов Ован, 0.08%), морские водоросли (высушенные), глюкозамин (0.06%), цветки календулы (дегидратированный), юкка (дегидратированный), хондроитин сульфат (0.01%).&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Хімічний склад:&lt;/strong&gt; сирий протеїн-25,0%; сирий жир-15,0%; сира клітковина-2,5%; волога-10,0%; сира зола-7,5%; кальцій-1,5%; фосфор-1,1%; Омега 3-0,75%; Омега 6-2,1%.&lt;/p&gt;
+&lt;strong&gt;Химический состав:&lt;/strong&gt; сырой протеин-25,0%; сырой жир 15,0%; сырая клетчатка-2,5%; влага 10,0%; сырая зола-7,5%; кальций-1,5%; фосфор-1,1%; Омега 3-0,75%; Омега 6-2,1%.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Основні добавки:&lt;/strong&gt; харчові добавки на 1 кг корму: вітамін А-25000 МО; вітамін Д3-1200 МО; вітамін Е-600 мг; Біотин-500 мкг; Карнітин-400 мг; вітамін С-100 мг, мідь (сульфат міді II, пентагідрат)-10,0 мг; цинк (оксид цинку)-40,0 мг; цинк (хелат цинку з гідрату амінокислот)-75,0 мг; марганець (хелат марганцю з гідрату амінокислот)-5,0 мг; марганець (оксид марганцю)-5,0 мг; йод (кальцію йодид, зневоднений)-2,0 мг; селен (селеніт натрію)-0,2 мг.&lt;/p&gt;</t>
+&lt;strong&gt;Основные добавки:&lt;/strong&gt; пищевые добавки на 1 кг корма: витамин А-25000 МЕ витамин Д3-1200 МЕ витамин Е-600 мг Биотин-500 мкг Карнитин-400 мг витамин С-100 мг, медь (сульфат меди II, пентагидрат) 10,0 мг цинк (оксид цинка) -40,0 мг цинк (хелат цинка из гидрата аминокислот) -75,0 мг марганец (хелат марганца из гидрата аминокислот) -5,0 мг марганец (оксид марганца) -5,0 мг йод (кальция йодид, обезвоженный) -2,0 мг селен (селенит натрия) -0,2 мг.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;table align="center" cellpadding="5"&gt;
 	&lt;tbody&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;&lt;strong&gt;Вага собаки (кг)&lt;/strong&gt;&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;&lt;strong&gt;Рекомендовані порції вказані на один день в грамах (нормальна активність / підвищена активність) &lt;/strong&gt;&lt;/p&gt;
-			&lt;/td&gt;
+			&lt;p&gt;&lt;strong&gt;Вec собаки (кг)&lt;/strong&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;Рекомендуемые порции указаны на один день в граммах (нормальная активность / повышенная активность)&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;
@@ -711,54 +717,54 @@
     <t>Chicopee CNL Adult Light Lamb &amp; Rice</t>
   </si>
   <si>
-    <t>міцні кістки і суглоби,натуральні інгредієнти,зроблено в Німеччині,сильний імунітет</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Classic Nature Line - нова лінійка вдосконалених рецептів, які дозволяють вашому домашньому улюбленцю &amp;nbsp;залишатися здоровим і красивим.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Не містять пшениці&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;Підходить для собак з чутливим травленням і непереносимістю пшениці. У кормі поєднуються легкозасвоювані вуглеводи і білки.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Екстракт мідії&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;Екстракт зеленого губчатого молюска (новозеландського) містить спеціальні компоненти, що підтримують розвиток суглоба, підсилює їх міцність.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Сильна імунна система&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;Наш імунний комплекс являє собою комбінацію маннан-олігосахоридів і &amp;beta;-глюканов. Він стабілізує кишкову мікрофлору і підтримує імунну систему.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Шовковиста шерсть&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;Комплекс &amp;laquo;шовковистого пальто&amp;raquo; являє собою поєднання високоякісного лососевого масла, натурального лляного насіння і дріжджів. Вони містять важливі компоненти, щоб шерсть залишалася шовковистою, а шкіра гладкою.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Антистаріння&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;Додатковий вітамін Е! Вітамін Е є метаболічним активним антиоксидантом і може захистити клітини організму від шкідливої дії вільних радикалів.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Контроль ваги&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;Зниження вмісту білка і жиру сприяє розвитку оптимальної за своєю природою характерною маси тіла. Додані дієтичні волокна (сире волокно) підтримують рухливість кишечника і насичення вашої собаки.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Енергія&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;Підвищений вміст жиру забезпечує оптимальну кількість енергії в концентрованій і легко засвоюваній формі, особливо для собак з особливими вимогами.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;для дорослих собак всіх порід з надмірною вагою&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;як основний та додатковий корм для огрядних та схильних до ожиріння дорослих собак від 1 року життя, всіх порід.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Склад:&lt;/strong&gt; білок з м&amp;#39;яса птиці (дегідратований і гідролізований, 12%), рис (12%), пшоно, ячмінь, кукурудза, білок з м&amp;#39;яса ягняти (висушене, 10 %), просо, бурякова пульпа (без цукру), жир свійської птиці, горох (дегідратований), льняне насіння (2,5%), дріжджі (дегідратовані, 0,5% манна-олігосахаридів, 0,1% бета-глюкан), масло лосося (0,5%), хлорид натрію, хлорид калію, екстракт зеленого губчатого молюска (0,1%).&lt;/p&gt;
+    <t>крепкие кости и суставы,натуральные ингредиенты,сделано в Германии,сильный иммунитет</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Classic Nature Line - новая линейка усовершенствованных рецептов, которые позволяют вашему домашнему любимцу оставаться здоровым и красивым. &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Не содержат пшеницы&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Подходит для собак с чувствительным пищеварением и непереносимостью пшеницы. В корме сочетаются легкоусвояемые углеводы и белки.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Экстракт мидии &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Экстракт зеленого губчатого моллюска (новозеландского) содержит специальные компоненты, поддерживающие развитие сустава, усиливает их прочность.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Сильная иммунная система &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Наш иммунный комплекс представляет собой комбинацию маннан-олигосахоридив и &amp;beta;-глюканов. Он стабилизирует кишечную микрофлору и поддерживает иммунную систему.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Шелковистая шерсть &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Комплекс &amp;laquo;шелковистого пальто&amp;raquo; представляет собой сочетание высококачественного лососевого масла, натурального льняного семени и дрожжей. Они содержат важные компоненты, чтобы шерсть оставалась шелковистой, а кожа гладкой.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Антистарение&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Дополнительный витамин Е! Витамин Е является метаболическим активным антиоксидантом и может защитить клетки организма от вредного воздействия свободных радикалов.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Контроль веса &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Снижение содержания белка и жира способствует развитию оптимальной по своей природе характерной массы тела. Добавлены диетические волокна (сырое волокно) поддерживают подвижность кишечника и насыщение вашей собаки.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Энергия &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Повышенное содержание жира обеспечивает оптимальное количество энергии в концентрированной и легко усваиваемой форме, особенно для собак с особыми требованиями.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;для взрослых собак всех пород с избыточным весом&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;как основной и дополнительный корм для тучных и склонных к ожирению взрослых собак от 1 года жизни, всех пород.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Состав:&lt;/strong&gt; белок из мяса птицы (дегидратированный и гидролизованный, 12%), рис (12%), пшено, ячмень, кукуруза, белок из мяса ягненка (высушенные, 10% ), просо, свекольная пульпа (без сахара), жир домашней птицы, горох (дегидратированный), льняное семя (2,5%), дрожжи (дегидратированной, 0,5% манная-олигосахаридов, 0,1% бета-глюкан), масло лосося (0,5%), хлорид натрия, хлорид калия, экстракт зеленого губчатого моллюска (0,1%).&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Хімічний склад:&lt;/strong&gt; сирий протеїн 20,0%, сирий жир 10,0%, сира клітковина 3,5%, волога 10%, сира зола 6,4%, кальцій 1,1%, фосфор 0,82%.&lt;/p&gt;
+&lt;strong&gt;Химический состав:&lt;/strong&gt; сырой протеин 20,0%, сырой жир 10,0%, сырая клетчатка 3,5%, влага 10%, сырая зола 6,4%, кальций 1,1%, фосфор 0 , 82%.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Основні добавки:&lt;/strong&gt; харчові добавки на 1 кг корму: Вітамін А 16,000 ME, Вітамін Д3 1,250 ME, Вітамін Е 150 мг, Мідь (сульфат міді II, пентагідрат) 10 мг, Цинк (оксид цинку) 90 мг, Цинк (хелат цинку з гідрату амінокислот) 45 мг, Йод (кальцію йодид, зневоднений) 2 мг, Селен (селеніт натрію) 0,2 мг&lt;/p&gt;</t>
+&lt;strong&gt;Основные добавки:&lt;/strong&gt; пищевые добавки на 1 кг корма Витамин А 16,000 ME, Витамин Д3 1,250 ME, витамин Е 150 мг, Медь (сульфат меди II, пентагидрат) 10 мг, Цинк (оксид цинка) 90 мг , Цинк (хелат цинка из гидрата аминокислот) 45 мг, Йод (кальция йодид, обезвоженный) 2 мг, Селен (селенит натрия) 0,2 мг&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;table align="center" cellpadding="5"&gt;
 	&lt;tbody&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;Вага собаки (кг)&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;Рекомендовані порції вказані на один день в грамах постійна ваг / зниження ваги&lt;/p&gt;
+			&lt;p&gt;Вес собаки (кг)&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;Рекомендованные порции указаны на один день в граммах постоянная весов / снижение веса&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
@@ -876,30 +882,51 @@
     <t>Chicopee CNL Adult Active Chicken &amp; Rice</t>
   </si>
   <si>
-    <t>міцні кістки і суглоби,натуральні інгредієнти,зроблено в Німеччині,сильна мускулатура,сильний імунітет</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;для дорослих активних собак всіх порід з куркою і рисом&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;як основний та додатковий корм для дорослих собак від 1 року життя, всіх порід з підвищеним рівнем активності.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Склад:&lt;/strong&gt;&amp;nbsp;білок з м&amp;rsquo;яса птиці (висушений і гідролізований 33%, з цього 27% з курки), кукурудза, жир свійської птиці, рис (10%), сорго, лосось (дегідратований, 5%), горох (дегідратований), льняне масло (3%), масло лосося (2%), дріжджі (дегідратовані), хлорид калію, хлорид натрію, екстракт зеленого губчатого молюска (0,1%).&lt;/p&gt;
+    <t>крепкие кости и суставы,натуральные ингредиенты,сделано в Германии,сильная мускулатура,сильный иммунитет</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Classic Nature Line - новая линейка усовершенствованных рецептов, которые позволяют вашему домашнему любимцу оставаться здоровым и красивым. &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Не содержат пшеницы &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Подходит для собак с чувствительным пищеварением и непереносимостью пшеницы. В корме сочетаются легкоусвояемые углеводы и белки. &amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Экстракт мидии &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Экстракт зеленого губчатого моллюска (новозеландского) содержит специальные компоненты, поддерживающие развитие сустава, усиливает их прочность.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Сильная иммунная система &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Наш иммунный комплекс представляет собой комбинацию маннан-олигосахоридив и &amp;beta;-глюканов. Он стабилизирует кишечную микрофлору и поддерживает иммунную систему.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Шелковистая шерсть &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Комплекс &amp;laquo;шелковистого пальто&amp;raquo; представляет собой сочетание высококачественного лососевого масла, натурального льняного семени и дрожжей. Они содержат важные компоненты, чтобы шерсть оставалась шелковистой, а кожа гладкой.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Антистарение &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Дополнительный витамин Е! Витамин Е является метаболическим активным антиоксидантом и может защитить клетки организма от вредного воздействия свободных радикалов.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Контроль веса &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Снижение содержания белка и жира способствует развитию оптимальной по своей природе характерной массы тела. Добавлены диетические волокна (сырое волокно) поддерживают подвижность кишечника и насыщение вашей собаки.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Энергия &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Повышенное содержание жира обеспечивает оптимальное количество энергии в концентрированной и легко усваиваемой форме, особенно для собак с особыми требованиями.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;для взрослых активных собак всех пород с курицей и рисом&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Состав:&lt;/strong&gt; белок из мяса птицы (высушенный и гидролизованный 33%, благодаря чему 27% из курицы), кукуруза, жир домашней птицы, рис (10%), сорго, лосось (дегидратированный , 5%), горох (дегидратированный), льняное масло (3%), масло лосося (2%), дрожжи (дегидратированный), хлорид калия, хлорид натрия, экстракт зеленого губчатого моллюска (0,1%).&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Хімічний склад:&lt;/strong&gt; сирий протеїн 31.0%, сирий жир 21.0%, сира клітковина 2.0%, волога 10,0%, сира зола 6.9%, кальцій 1.45%, фосфор 1.0%.&lt;/p&gt;
+&lt;strong&gt;Химический состав: &lt;/strong&gt; сырой протеин 31.0%, сырой жир 21.0%, сырая клетчатка 2.0%, влага 10,0%, сырая зола 6.9%, кальций 1.45%, фосфор 1.0%.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Основні добавки:&lt;/strong&gt; харчові добавки на 1 кг корму: вітамін А-16000 МО; вітамін Д3-1250 МО; вітамін Е-300 мг; Карнітин-250 мг, мідь (сульфат міді II, пентагідрат)-10,0 мг; цинк (оксид цинку)-90,0 мг; цинк (хелат цинку з гідрату амінокислот)-45,0 мг; йод (кальцію йодид, зневоднений)-2,0 мг; селен (селеніт натрію)-0,2 мг.&lt;/p&gt;</t>
+&lt;strong&gt;Основные добавки:&lt;/strong&gt; пищевые добавки на 1 кг корма: витамин А-16000 МЕ витамин Д3-1250 МЕ витамин Е-300 мг Карнитин-250 мг, медь (сульфат меди II, пентагидрат) 10,0 мг цинк (оксид цинка) -90,0 мг цинк (хелат цинка из гидрата аминокислот) -45,0 мг йод (кальция йодид, обезвоженный) -2,0 мг селен (селенит натрия) -0,2 мг.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;table align="center" cellpadding="5"&gt;
 	&lt;tbody&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;&lt;strong&gt;Вага собаки (кг)&lt;/strong&gt;&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;&lt;strong&gt;нормальна активність / підвищена активність (г)&lt;/strong&gt;&lt;/p&gt;
+			&lt;p&gt;&lt;strong&gt;Вес собаки (кг)&lt;/strong&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;&lt;strong&gt;нормальная активность/повышенная активность (г)&lt;/strong&gt;&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
@@ -1009,30 +1036,54 @@
     <t>Chicopee CNL Adult Lamb &amp; Rice</t>
   </si>
   <si>
-    <t>середній</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;для дорослих собак всіх порід з ягням і рисом&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;як основний та додатковий корм для дорослих собак від 1 року життя, всіх порід.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Склад:&lt;/strong&gt; білок з м&amp;rsquo;яса птиці (дегідратований і гідролізований, 16%), ячмінь, кукурудза, білок з м&amp;rsquo;яса ягняти (висушений, 10%), просо, рис (7%), бурякова пульпа (без цукру), жир свійської птиці, горох (дегідратований), льняне насіння (2.5%), дріжджі (дегідратовані, 0.5% маннан-олігосахарид 0.1% бета-глюкан),масло лосося (0,5%), хлорид натрію, хлорид калію, екстракт зеленого губчатого молюска (0.1%).&lt;/p&gt;
+    <t>средний</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Classic Nature Line - новая линейка усовершенствованных рецептов, которые позволяют вашему домашнему любимцу оставаться здоровым и красивым. &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Не содержат пшеницы &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Подходит для собак с чувствительным пищеварением и непереносимостью пшеницы. В корме сочетаются легкоусвояемые углеводы и белки.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Экстракт мидии &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Экстракт зеленого губчатого моллюска (новозеландского) содержит специальные компоненты, поддерживающие развитие сустава, усиливает их прочность.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Сильная иммунная система &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Наш иммунный комплекс представляет собой комбинацию маннан-олигосахоридив и &amp;beta;-глюканов. Он стабилизирует кишечную микрофлору и поддерживает иммунную систему.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Шелковистая шерсть &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Комплекс &amp;laquo;шелковистого пальто&amp;raquo; представляет собой сочетание высококачественного лососевого масла, натурального льняного семени и дрожжей. Они содержат важные компоненты, чтобы шерсть оставалась шелковистой, а кожа гладкой.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Антистарение&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Дополнительный витамин Е! Витамин Е является метаболическим активным антиоксидантом и может защитить клетки организма от вредного воздействия свободных радикалов.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Контроль веса &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Снижение содержания белка и жира способствует развитию оптимальной по своей природе характерной массы тела. Добавлены диетические волокна (сырое волокно) поддерживают подвижность кишечника и насыщение вашей собаки.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Энергия &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Повышенное содержание жира обеспечивает оптимальное количество энергии в концентрированной и легко усваиваемой форме, особенно для собак с особыми требованиями.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;для взрослых собак всех пород с ягненком и рисом&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;как основной и дополнительный корм для взрослых собак от 1 года жизни, всех пород.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Состав:&lt;/strong&gt; белок из мяса птицы (дегидратированный и гидролизованный, 16%), ячмень, кукуруза, белок из мяса ягненка (высушенные, 10%), просо, рис (7%), свекольная пульпа (без сахара), жир домашней птицы, горох (дегидратированный), льняное семя (2.5%), дрожжи (дегидратированной, 0.5% маннан-олигосахариды 0.1% бета-глюкан), масло лосося (0,5%), хлорид натрия, хлорид калия, экстракт зеленого губчатого моллюска (0.1%).&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Хімічний склад:&lt;/strong&gt; сирий протеїн-24%; сирий жир-12,5%; сира клітковина-3,1%; волога-10%; сира зола-6,7%; кальцій-1,3%; фосфор-0,95%.&lt;/p&gt;
+&lt;strong&gt;Химический состав:&lt;/strong&gt; сырой протеин 24%; сырой жир-12,5%; сырая клетчатка-3,1%; влага-10%; сырая зола-6,7%; кальций-1,3%; фосфор-0,95%.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Основні добавки:&lt;/strong&gt; харчові добавки на 1 кг корму: вітамін А-15000 МО; вітамін Д3-1200 МО; вітамін Е-150 мг, мідь (сульфат міді II, пентагідрат)-10,0; цинк (оксид цинку)-90,0; цинк (хелат цинку з гідрату амінокислот)-45,0; йод (кальцію йодид, зневоднений)-2,0; селен (селеніт натрію)-0,2.&lt;/p&gt;</t>
+&lt;strong&gt;Основные добавки:&lt;/strong&gt; пищевые добавки на 1 кг корма: витамин А-15000 МЕ витамин Д3-1200 МЕ витамин Е-150 мг, медь (сульфат меди II, пентагидрат) -10,0; цинк (оксид цинка) -90,0; цинк (хелат цинка из гидрата аминокислот) -45,0; йод (кальция йодид, обезвоженные) -2,0; селен (селенит натрия) -0,2.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;table align="center" cellpadding="5"&gt;
 	&lt;tbody&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;&lt;strong&gt;Вага собаки (кг)&lt;/strong&gt;&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;&lt;strong&gt;Рекомендовані порції вказані на один день в грамах &lt;/strong&gt;&lt;/p&gt;
+			&lt;p&gt;&lt;strong&gt;Вес собаки (кг)&lt;/strong&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;&lt;strong&gt;Рекомендуемые порции указаны на один день в граммах&lt;/strong&gt;&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
@@ -1142,27 +1193,51 @@
     <t>Chicopee CNL Adult Chicken &amp; Rice</t>
   </si>
   <si>
-    <t>міцні кістки і суглоби,натуральні інгредієнти,зроблено в Німеччині,сильний імунітет,здорова шкіра і шерсть</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;для дорослих собак всіх порід з куркою і рисом&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Склад:&lt;/strong&gt; білок з м&amp;#39;яса птиці (дегідратований і гідролізований 27%, з цього 22% з курки), кукурудза, ячмінь, жир свійської птиці, рис (5%), бурякова пульпа (без цукру), горох (дегідратований), льняне насіння ( 2%), дріжджі (дегідратовані, 0.5% маннан-олігосахаридів 0.1% бета глюкан), масло лосося (0.5%), хлорид натрію, хлорид калію, екстракт зеленого губчатого молюска (0,1%).&lt;/p&gt;
+    <t>крепкие кости и суставы,натуральные ингредиенты,сделано в Германии,сильный иммунитет,здоровая кожа и шерсть</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Classic Nature Line - новая линейка усовершенствованных рецептов, которые позволяют вашему домашнему любимцу оставаться здоровым и красивым. &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Не содержат пшеницы &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Подходит для собак с чувствительным пищеварением и непереносимостью пшеницы. В корме сочетаются легкоусвояемые углеводы и белки.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Экстракт мидии &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Экстракт зеленого губчатого моллюска (новозеландского) содержит специальные компоненты, поддерживающие развитие сустава, усиливает их прочность.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Сильная иммунная система &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Наш иммунный комплекс представляет собой комбинацию маннан-олигосахоридив и &amp;beta;-глюканов. Он стабилизирует кишечную микрофлору и поддерживает иммунную систему.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Шелковистая шерсть &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Комплекс &amp;laquo;шелковистого пальто&amp;raquo; представляет собой сочетание высококачественного лососевого масла, натурального льняного семени и дрожжей. Они содержат важные компоненты, чтобы шерсть оставалась шелковистой, а кожа гладкой.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Антистарение &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Дополнительный витамин Е! Витамин Е является метаболическим активным антиоксидантом и может защитить клетки организма от вредного воздействия свободных радикалов.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Контроль веса &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Снижение содержания белка и жира способствует развитию оптимальной по своей природе характерной массы тела. Добавлены диетические волокна (сырое волокно) поддерживают подвижность кишечника и насыщение вашей собаки.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Энергия &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Повышенное содержание жира обеспечивает оптимальное количество энергии в концентрированной и легко усваиваемой форме, особенно для собак с особыми требованиями.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;для взрослых собак всех пород с курицей и рисом&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Состав:&lt;/strong&gt; белок из мяса птицы (дегидратированный и гидролизованный 27%, с этого 22% из курицы), кукуруза, ячмень, жир домашней птицы, рис (5%), свекольная пульпа (без сахара), горох (дегидратированный), льняное семя (2%), дрожжи (дегидратированной, 0.5% маннан-олигосахаридов 0.1% бета глюкан), масло лосося (0.5%), хлорид натрия, хлорид калия, экстракт зеленого губчатого моллюска (0 , 1%).&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Хімічний склад: &lt;/strong&gt;сирий протеїн 25.0%, сирий жир 12.5%, сира клітковина 2.9%, волога 10.0%, сира зола 5.9%, кальцій 1.15%, фосфор 0.85%.&lt;/p&gt;
+&lt;strong&gt;Химический состав:&lt;/strong&gt; сырой протеин 25.0%, сырой жир 12.5%, сырая клетчатка 2.9%, влага 10.0%, сырая зола 5.9%, кальций 1.15%, фосфор 0.85%.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Основні добавки:&lt;/strong&gt; харчові добавки на 1 кг корму: Вітамін А 15.000 ME, Вітамін Д3 1.200 ME, Вітамін Е 150 мг, мідь (у формі сульфату міді ІІ, пентагідрат) 10 мг, цинк (оксид цинку) 90 мг, цинк (хелат цинку з гідрату амінокислот) 45 мг, йод (кальцію йодид, зневоднений) 2 мг, селен (селеніт натрію) 0.2 мг&lt;/p&gt;</t>
+&lt;strong&gt;Основные добавки:&lt;/strong&gt; пищевые добавки на 1 кг корма Витамин А 15.000 ME, Витамин Д3 1.200 ME, витамин Е 150 мг, медь (в форме сульфата меди ИИ, пентагидрат) 10 мг, цинк (оксид цинка) 90 мг, цинк (хелат цинка из гидрата аминокислот) 45 мг, йод (кальция йодид, обезвоженный) 2 мг, селен (селенит натрия) 0.2 мг&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;table align="center" cellpadding="5"&gt;
 	&lt;tbody&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;&lt;strong&gt;Вага собаки (кг)&lt;/strong&gt;&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;&lt;strong&gt;Рекомендовані порції вказані на один день в грамах &lt;/strong&gt;&lt;/p&gt;
+			&lt;p&gt;&lt;strong&gt;Вес собаки (кг)&lt;/strong&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;&lt;strong&gt;Рекомендуемые порции указаны на один день в граммах &lt;/strong&gt;&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
@@ -1269,185 +1344,160 @@
     <t>Chicopee CNL Senior Soft Chicken &amp; Rice</t>
   </si>
   <si>
-    <t>міцні кістки і суглоби,натуральні інгредієнти,зроблено в Німеччині,сильний імунітет,правильне травлення</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-   &lt;strong&gt;Classic Nature Line - нова лінійка вдосконалених рецептів, які дозволяють вашому домашньому улюбленцю  залишатися здоровим і красивим.&lt;/strong&gt;&lt;/p&gt;
-  &lt;p&gt;
-    &lt;/p&gt;
-  &lt;p&gt;
-   &lt;strong&gt;Не містять пшениці&lt;/strong&gt;&lt;/p&gt;
-  &lt;p&gt;
-   Підходить для собак з чутливим травленням і непереносимістю пшениці. У кормі поєднуються легкозасвоювані вуглеводи і білки.&lt;/p&gt;
-  &lt;p&gt;
-    &lt;/p&gt;
-  &lt;p&gt;
-   &lt;strong&gt;Екстракт мідії&lt;/strong&gt;&lt;/p&gt;
-  &lt;p&gt;
-   Екстракт зеленого губчатого молюска (новозеландського) містить спеціальні компоненти, що підтримують розвиток суглоба, підсилює їх міцність.&lt;/p&gt;
-  &lt;p&gt;
-    &lt;/p&gt;
-  &lt;p&gt;
-   &lt;strong&gt;Сильна імунна система&lt;/strong&gt;&lt;/p&gt;
-  &lt;p&gt;
-   Наш імунний комплекс являє собою комбінацію маннан-олігосахоридів і β-глюканов. Він стабілізує кишкову мікрофлору і підтримує імунну систему.&lt;/p&gt;
-  &lt;p&gt;
-    &lt;/p&gt;
-  &lt;p&gt;
-   &lt;strong&gt;Шовковиста шерсть&lt;/strong&gt;&lt;/p&gt;
-  &lt;p&gt;
-   Комплекс «шовковистого пальто» являє собою поєднання високоякісного лососевого масла, натурального лляного насіння і дріжджів. Вони містять важливі компоненти, щоб шерсть залишалася шовковистою, а шкіра гладкою.&lt;/p&gt;
-  &lt;p&gt;
-    &lt;/p&gt;
-  &lt;p&gt;
-   &lt;strong&gt;Антистаріння&lt;/strong&gt;&lt;/p&gt;
-  &lt;p&gt;
-   Додатковий вітамін Е! Вітамін Е є метаболічним активним антиоксидантом і може захистити клітини організму від шкідливої дії вільних радикалів.&lt;/p&gt;
-  &lt;p&gt;
-    &lt;/p&gt;
-  &lt;p&gt;
-   &lt;strong&gt;Контроль ваги&lt;/strong&gt;&lt;/p&gt;
-  &lt;p&gt;
-   Зниження вмісту білка і жиру сприяє розвитку оптимальної за своєю природою характерною маси тіла. Додані дієтичні волокна (сире волокно) підтримують рухливість кишечника і насичення вашої собаки.&lt;/p&gt;
-  &lt;p&gt;
-    &lt;/p&gt;
-  &lt;p&gt;
-   &lt;strong&gt;Енергія&lt;/strong&gt;&lt;/p&gt;
-  &lt;p&gt;
-   Підвищений вміст жиру забезпечує оптимальну кількість енергії в концентрованій і легко засвоюваній формі, особливо для собак з особливими вимогами.&lt;/p&gt;
- &lt;/body&gt;
-&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>для літніх собак усіх порід з куркою і рисом</t>
-  </si>
-  <si>
-    <t>як основний та додатковий корм для літніх собак від 7 року життя, всіх порід.</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Склад:&lt;/strong&gt; білок з м’яса птиці (дегідратований і гідролізований 32%, з цього 27% з курки), рис (20%), ячмінь, жир свійської птиці, бурякова пульпа (без цукру), кукурудза, лляне насіння (2,5%), горох (дегідратований), дріжджі (дегідратовані, 0.5% маннан-олігосахарид 0.1% бета-глюкан), масло лосося (0.5%), хлорид натрію, хлорид калію, екстракт зеленого губчатого молюска (0,1%).&lt;/p&gt;
+    <t>крепкие кости и суставы,натуральные ингредиенты,сделано в Германии,сильный иммунитет,правильное пищеварение</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Classic Nature Line - новая линейка усовершенствованных рецептов, Которые позволяют вашему домашнему любимцу оставаться здоровым и красивым. &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;НЕ содержат пшеницы &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Подходит для собак с чувствительным пищеварением и непереносимостью пшеницы. В корме сочетаются легкоусвояемые углеводы и белки.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Экстракт мидии &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Экстракт зеленого губчатого моллюска (новозеландский) содержит специальные компоненты, поддерживающие развитие сустава, усиливает их прочность.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Сильная Иммунная система &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Наш Иммунные комплекс представляет собой комбинацию маннан-олигосахоридив и &amp;beta;-глюканов. Он стабилизирует кишечную микрофлору и поддерживает иммунную систему.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Шелковистая шерсть &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Комплекс &amp;laquo;шелковисто пальто&amp;raquo; представляет собой сочетание высококачественного лососевого масла, натурального льняного семени и дрожжей. Они содержат важные компоненты, чтоб шерсть оставалась шелковистой, а кожа гладкой.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Антистарение &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Дополнительный витамин Е! Витамин Е является метаболическим активным антиоксидантом и может защитить клетки организма от вредного воздействия свободных радикалов.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Контроль веса &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Снижение содержания белка и жира способствует развитию оптимальной по своей природе характерной массы тела. Добавлены диетические волокна (сырое волокно) поддерживают подвижность кишечника и насыщение вашей собаки.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Энергия &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Повышенное содержание жира обеспечивает оптимальное количество энергии в концентрированной и легко усваиваемое форме, особенно для собак с Особыми требованиями.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;для пожилых собак всех пород с курицей и рисом&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;как основной и дополнительный корм для пожилых собак от 7 года жизни, всех пород.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Состав:&lt;/strong&gt; белок из мяса птицы (дегидратированный и гидролизованный 32%, благодаря чему 27% из курицы), рис (20%), ячмень, жир домашней птицы, свекольная пульпа (без сахара ), кукуруза, льняное семя (2,5%), горох (дегидратированный), дрожжи (дегидратированной, 0.5% маннан-олигосахарид 0.1% бета-глюкан), масло лосося (0.5%), хлорид натрия, хлорид калия, экстракт зеленого губчатого моллюска (0,1%).&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Хімічний склад:&lt;/strong&gt; протеїн 25.0%, вміст жиру 13.0%, клітковина 2.5%, волога 18.0%, сира зола 6.3%, кальцій 1.2%, фосфор 0.8%.&lt;/p&gt;
+&lt;strong&gt;Химический состав:&lt;/strong&gt; протеин 25.0%, содержание жира 13.0%, клетчатка 2,5%, влага 18.0%, сырая зола 6.3%, кальций 1.2%, фосфор 0.8%.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Основні добавки:&lt;/strong&gt; харчові добавки на 1 кг корму: Вітамін А 16.000 ME, Вітамін Д3 1.250 ME, Вітамін Е 450 мг, мідь (у формі сульфату міді ІІ, пентагідрат) 10 мг, цинк (оксид цинку) 90 мг, цинк (хелат цинку з гідрату амінокислот) 45 мг, йод (кальцію йодид, зневоднений) 2 мг, селен (селеніт натрію) 0.2 мг&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;table class="table-responsive table-bordered"&gt;
- &lt;tbody&gt;
-  &lt;tr&gt;
-   &lt;td&gt;
-   &lt;p&gt;&lt;strong&gt;Вага собаки (кг)&lt;/strong&gt;&lt;/p&gt;
-   &lt;/td&gt;
-   &lt;td&gt;
-   &lt;p&gt;&lt;strong&gt;Рекомендовані порції вказані на один день в грамах &lt;/strong&gt;&lt;/p&gt;
-   &lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-   &lt;td&gt;
-   &lt;p&gt;5&lt;/p&gt;
-   &lt;/td&gt;
-   &lt;td&gt;
-   &lt;p&gt;80&lt;/p&gt;
-   &lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-   &lt;td&gt;
-   &lt;p&gt;10&lt;/p&gt;
-   &lt;/td&gt;
-   &lt;td&gt;
-   &lt;p&gt;140&lt;/p&gt;
-   &lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-   &lt;td&gt;
-   &lt;p&gt;15&lt;/p&gt;
-   &lt;/td&gt;
-   &lt;td&gt;
-   &lt;p&gt;190&lt;/p&gt;
-   &lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-   &lt;td&gt;
-   &lt;p&gt;20&lt;/p&gt;
-   &lt;/td&gt;
-   &lt;td&gt;
-   &lt;p&gt;235&lt;/p&gt;
-   &lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-   &lt;td&gt;
-   &lt;p&gt;25&lt;/p&gt;
-   &lt;/td&gt;
-   &lt;td&gt;
-   &lt;p&gt;275&lt;/p&gt;
-   &lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-   &lt;td&gt;
-   &lt;p&gt;30&lt;/p&gt;
-   &lt;/td&gt;
-   &lt;td&gt;
-   &lt;p&gt;315&lt;/p&gt;
-   &lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-   &lt;td&gt;
-   &lt;p&gt;35&lt;/p&gt;
-   &lt;/td&gt;
-   &lt;td&gt;
-   &lt;p&gt;355&lt;/p&gt;
-   &lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-   &lt;td&gt;
-   &lt;p&gt;40&lt;/p&gt;
-   &lt;/td&gt;
-   &lt;td&gt;
-   &lt;p&gt;390&lt;/p&gt;
-   &lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-   &lt;td&gt;
-   &lt;p&gt;45&lt;/p&gt;
-   &lt;/td&gt;
-   &lt;td&gt;
-   &lt;p&gt;430&lt;/p&gt;
-   &lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-   &lt;td&gt;
-   &lt;p&gt;50&lt;/p&gt;
-   &lt;/td&gt;
-   &lt;td&gt;
-   &lt;p&gt;465&lt;/p&gt;
-   &lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-   &lt;td&gt;
-   &lt;p&gt;60&lt;/p&gt;
-   &lt;/td&gt;
-   &lt;td&gt;
-   &lt;p&gt;530&lt;/p&gt;
-   &lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-   &lt;td&gt;
-   &lt;p&gt;70&lt;/p&gt;
-   &lt;/td&gt;
-   &lt;td&gt;
-   &lt;p&gt;595&lt;/p&gt;
-   &lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;tr&gt;
-   &lt;td&gt;
-   &lt;p&gt;80&lt;/p&gt;
-   &lt;/td&gt;
-   &lt;td&gt;
-   &lt;p&gt;660&lt;/p&gt;
-   &lt;/td&gt;
-  &lt;/tr&gt;
- &lt;/tbody&gt;
+&lt;strong&gt;Основные добавки:&lt;/strong&gt; пищевые добавки на 1 кг корма Витамин А 16.000 ME, Витамин Д3 1.250 ME, витамин Е 450 мг, медь (в форме сульфата меди ИИ, пентагидрат) 10 мг, цинк (оксид цинка) 90 мг, цинк (хелат цинка из гидрата аминокислот) 45 мг, йод (кальция йодид, обезвоженный) 2 мг, селен (селенит натрия) 0.2 мг&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;table&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td&gt;
+			&lt;p&gt;&lt;strong&gt;Вес собаки (кг)&lt;/strong&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td&gt;
+			&lt;p&gt;&lt;strong&gt;Рекомендуемые порции указаны на один день в граммах&lt;/strong&gt;&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;
+			&lt;p&gt;5&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td&gt;
+			&lt;p&gt;80&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;
+			&lt;p&gt;10&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td&gt;
+			&lt;p&gt;140&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;
+			&lt;p&gt;15&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td&gt;
+			&lt;p&gt;190&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;
+			&lt;p&gt;20&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td&gt;
+			&lt;p&gt;235&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;
+			&lt;p&gt;25&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td&gt;
+			&lt;p&gt;275&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;
+			&lt;p&gt;30&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td&gt;
+			&lt;p&gt;315&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;
+			&lt;p&gt;35&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td&gt;
+			&lt;p&gt;355&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;
+			&lt;p&gt;40&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td&gt;
+			&lt;p&gt;390&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;
+			&lt;p&gt;45&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td&gt;
+			&lt;p&gt;430&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;
+			&lt;p&gt;50&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td&gt;
+			&lt;p&gt;465&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;
+			&lt;p&gt;60&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td&gt;
+			&lt;p&gt;530&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;
+			&lt;p&gt;70&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td&gt;
+			&lt;p&gt;595&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;
+			&lt;p&gt;80&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td&gt;
+			&lt;p&gt;660&lt;/p&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
 &lt;/table&gt;</t>
   </si>
   <si>
@@ -1463,57 +1513,81 @@
     <t>Chicopee CNL Puppy Lamb &amp; Rice</t>
   </si>
   <si>
-    <t>натуральні інгредієнти,зроблено в Німеччині,здорова шкіра і шерсть</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;для цуценят всіх порід з ягням і рисом&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;як основний та додатковий корм для цуценят до 12 місяців життя, всіх порід.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Склад:&lt;/strong&gt; білок з м&amp;rsquo;яса птиці (дегідратований і гідролізований, 21%), ячмінь, кукурудза, білок з м&amp;rsquo;яса ягняти (висушений, 10%), жир свійської птиці, просо, рис (4%), льняне насіння (2.5%), бурякова пульпа (без цукру), горох (дегідратований), дріжджі (дегідратовані, 0.5% маннан-олігосахарид 0.1% бета-глюкан), масло лосося (0,5%), хлорид натрію, екстракт зеленого губчатого молюска (0.1% ), хлорид калію.&amp;nbsp;&lt;/p&gt;
+    <t>натуральные ингредиенты,сделано в Германии,здоровая кожа и шерсть</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Classic Nature Line - новая линейка усовершенствованных рецептов, которые позволяют вашему домашнему любимцу оставаться здоровым и красивым. &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Не содержат пшеницы &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Подходит для собак с чувствительным пищеварением и непереносимостью пшеницы. В корме сочетаются легкоусвояемые углеводы и белки.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Экстракт мидии &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Экстракт зеленого губчатого моллюска (новозеландского) содержит специальные компоненты, поддерживающие развитие сустава, усиливает их прочность.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Сильная иммунная система &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Наш иммунный комплекс представляет собой комбинацию маннан-олигосахоридив и &amp;beta;-глюканов. Он стабилизирует кишечную микрофлору и поддерживает иммунную систему.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Шелковистая шерсть &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Комплекс &amp;laquo;шелковистого пальто&amp;raquo; представляет собой сочетание высококачественного лососевого масла, натурального льняного семени и дрожжей. Они содержат важные компоненты, чтобы шерсть оставалась шелковистой, а кожа гладкой.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Антистарение &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Дополнительный витамин Е! Витамин Е является метаболическим активным антиоксидантом и может защитить клетки организма от вредного воздействия свободных радикалов.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Контроль веса &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Снижение содержания белка и жира способствует развитию оптимальной по своей природе характерной массы тела. Добавлены диетические волокна (сырое волокно) поддерживают подвижность кишечника и насыщение вашей собаки.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Энергия &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Повышенное содержание жира обеспечивает оптимальное количество энергии в концентрированной и легко усваиваемой форме, особенно для собак с особыми требованиями.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;для щенков всех пород с ягненком и рисом&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;как основной и дополнительный корм для щенков до 12 месяцев жизни, всех пород.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Состав:&lt;/strong&gt; белок из мяса птицы (дегидратированный и гидролизованный, 21%), ячмень, кукуруза, белок из мяса ягненка (высушенный, 10%), жир домашней птицы, просо, рис (4%), льняное семя (2.5%), свекольная пульпа (без сахара), горох (дегидратированный), дрожжи (дегидратированной, 0.5% маннан-олигосахарид 0.1% бета-глюкан), масло лосося (0,5%), хлорид натрия, экстракт зеленого губчатого моллюска (0.1%), хлорид калия.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Хімічний склад:&lt;/strong&gt; сирий протеїн-27,0%; сирий жир-15,0%; сира клітковина-2,4%; волога-10,0%; сира зола-6,5%; кальцій-1,35%; фосфор-1,0%.&lt;/p&gt;
+&lt;strong&gt;Химический состав:&lt;/strong&gt; сырой протеин-27,0%; сырой жир 15,0%; сырая клетчатка-2,4%; влага 10,0%; сырая зола-6,5%; кальций-1,35%; фосфор-1,0%.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Основні добавки:&lt;/strong&gt; харчові добавки на 1 кг корму: вітамін А-16000 МО; вітамін Д3-1250 МО; вітамін Е-160 мг, мідь (сульфат міді II, пентагідрат)-10,0 мг; цинк (оксид цинку)-90,0 мг ; цинк (хелат цинку з гідрату амінокислот)-45,0 мг; йод (кальцію йодид, зневоднений)-2,0 мг; селен (селеніт натрію)-0,2 мг.&lt;/p&gt;</t>
+&lt;strong&gt;Основные добавки:&lt;/strong&gt; пищевые добавки на 1 кг корма: витамин А-16000 МЕ витамин Д3-1250 МЕ витамин Е-160 мг, медь (сульфат меди II, пентагидрат) 10,0 мг цинк (оксид цинка) -90,0 мг цинк (хелат цинка из гидрата аминокислот) -45,0 мг йод (кальция йодид, обезвоженный) -2,0 мг селен (селенит натрия) -0,2 мг.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;table align="center" cellpadding="5"&gt;
 	&lt;tbody&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;Вага цуценяти(кг)&lt;/p&gt;
+			&lt;p&gt;Вес щенка (кг)&lt;/p&gt;
 			&lt;/td&gt;
 			&lt;td colspan="6" style="text-align:center"&gt;
-			&lt;p&gt;Рекомендовані порції вказані на один день в грамах&lt;/p&gt;
+			&lt;p&gt;Рекомендуемые порции указаны на один день в граммах&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;&amp;nbsp;&lt;/td&gt;
 			&lt;td colspan="6" style="text-align:center"&gt;
-			&lt;p&gt;Вік цуценяти&lt;/p&gt;
+			&lt;p&gt;Возраст щенка&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;&amp;nbsp;&lt;/td&gt;
 			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;2 місяця&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;3 місяця&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;4 місяця&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;5&amp;ndash;6 місяців&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;6&amp;ndash;9 місяців&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;9&amp;ndash;12 місяців&lt;/p&gt;
+			&lt;p&gt;2 месяца&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;3 месяца&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;4 месяца&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;5&amp;ndash;6 месяцев&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;6&amp;ndash;9 месяцев&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;9&amp;ndash;12 месяцев&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
@@ -1719,56 +1793,56 @@
     <t>Chicopee CNL Mini Puppy Lamb &amp; Rice</t>
   </si>
   <si>
-    <t>малий</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;для цуценят дрібних порід з ягням і рисом&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;як основний та додатковий корм для цуценят до 12 місяців життя, дрібних порід.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Склад:&lt;/strong&gt; білок з м&amp;rsquo;яса птиці (дегідратований і гідролізований, 24%), ячмінь, кукурудза, жир свійської птиці, білок з м&amp;rsquo;яса ягняти (висушений, 10%), рис (4%), льняне насіння (2.5%), горох (дегідратований), дріжджі (дегідратовані, 0.5% маннан-олігосахарид 0.1% бета-глюкан), масло лосося (0,5%), хлорид натрію, екстракт зеленого губчатого молюска (0.1%), хлорид калію.&amp;nbsp;&lt;/p&gt;
+    <t>мелкий</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;для щенков мелких пород с ягненком и рисом&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;как основной и дополнительный корм для щенков до 12 месяцев жизни, мелких пород.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Состав:&lt;/strong&gt; белок из мяса птицы (дегидратированный и гидролизованный, 24%), ячмень, кукуруза, жир домашней птицы, белок из мяса ягненка (высушенный, 10%), рис ( 4%), льняное семя (2.5%), горох (дегидратированный), дрожжи (дегидратированной, 0.5% маннан-олигосахарид 0.1% бета-глюкан), масло лосося (0,5%), хлорид натрия, экстракт зеленого губчатого моллюска (0.1 %), хлорид калия.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Хімічний склад: &lt;/strong&gt;сирий протеїн-28,5%; сирий жир-18,0%; сира клітковина-2,1%; волога-10,0%; сира зола-6,5%; кальцій-1,3%; фосфор-1,0%.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Основні добавки: &lt;/strong&gt;харчові добавки на 1 кг корму: вітамін А-16000 МО; вітамін Д3-1250 МО; вітамін Е-160 мг, мідь (сульфат міді II, пентагідрат)-10,0 мг; цинк (оксид цинку)-90,0 мг ; цинк (хелат цинку з гідрату амінокислот)-45,0 мг; йод (кальцію йодид, зневоднений)-2,0 мг; селен (селеніт натрію)-0,2 мг.&lt;/p&gt;</t>
+&lt;strong&gt;Химический состав:&lt;/strong&gt; сырой протеин-28,5%; сырой жир-18,0%; сырая клетчатка-2,1%; влага 10,0%; сырая зола-6,5%; кальций-1,3%; фосфор-1,0%.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Основные добавки:&lt;/strong&gt; пищевые добавки на 1 кг корма: витамин А-16000 МЕ витамин Д3-1250 МЕ витамин Е-160 мг, медь (сульфат меди II, пентагидрат) 10,0 мг цинк (оксид цинка) -90,0 мг цинк (хелат цинка из гидрата аминокислот) -45,0 мг йод (кальция йодид, обезвоженный) -2,0 мг селен (селенит натрия) -0,2 мг.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;table align="center" cellpadding="5"&gt;
 	&lt;tbody&gt;
 		&lt;tr&gt;
 			&lt;td rowspan="" style="text-align:center"&gt;
-			&lt;p&gt;Вага цуценяти(кг)&lt;/p&gt;
+			&lt;p&gt;Вес щенка (кг)&lt;/p&gt;
 			&lt;/td&gt;
 			&lt;td colspan="6" style="text-align:center"&gt;
-			&lt;p&gt;Рекомендовані порції вказані на один день в грамах&lt;/p&gt;
+			&lt;p&gt;Рекомендуемые порции указаны на один день в граммах&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;&amp;nbsp;&lt;/td&gt;
 			&lt;td colspan="6" style="text-align:center"&gt;
-			&lt;p&gt;Вік цуценяти&lt;/p&gt;
+			&lt;p&gt;Возраст щенка&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;&amp;nbsp;&lt;/td&gt;
 			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;2 місяця&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;3 місяця&lt;/p&gt;
+			&lt;p&gt;2 месяца&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;3 месяца&lt;/p&gt;
 			&lt;/td&gt;
 			&lt;td style="text-align:center"&gt;
 			&lt;p&gt;4 місяця&lt;/p&gt;
 			&lt;/td&gt;
 			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;5&amp;ndash;6 місяців&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;6&amp;ndash;9 місяців&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;9&amp;ndash;12 місяців&lt;/p&gt;
+			&lt;p&gt;5&amp;ndash;6 месяцев&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;6&amp;ndash;9 месяцев&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;9&amp;ndash;12 месяцев&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
@@ -1885,27 +1959,27 @@
     <t>Chicopee CNL Mini Adult Lamb &amp; Rice</t>
   </si>
   <si>
-    <t>&lt;p&gt;для дорослих собак дрібних порід з ягням і рисом&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;як основний та додатковий корм для дорослих собак від 1 року життя, дрібних порід (до 15 кг).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Склад:&lt;/strong&gt; білок з м&amp;rsquo;яса птиці (дегідратований і гідролізований, 22.5%), кукурудза, ячмінь, білок з м&amp;rsquo;яса ягняти (висушений, 10%), жир свійської птиці, бурякова пульпа (без цукру), льняне насіння (2.5%), дріжджі (дегідратовані, 0.5% маннан-олігосахарид 0.1% бета-глюкан), масло лосося (0.5%), хлорид калію, хлорид натрію, екстракт зеленого губчатого молюска (0.1% ).&lt;/p&gt;
+    <t>&lt;p&gt;для взрослых собак мелких пород с ягненком и рисом&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;как основной и дополнительный корм для взрослых собак от 1 года жизни, мелких пород (до 15 кг).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Состав:&lt;/strong&gt; белок из мяса птицы (дегидратированный и гидролизованный, 22.5%), кукуруза, ячмень, белок из мяса ягненка (высушенный, 10%), жир домашней птицы, свекольная пульпа (без сахара), льняное семя (2.5%), дрожжи (дегидратированной, 0.5% маннан-олигосахарид 0.1% бета-глюкан), масло лосося (0.5%), хлорид калия, хлорид натрия, экстракт зеленого губчатого моллюска (0.1%).&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Хімічний склад:&lt;/strong&gt; сирий протеїн-26,5%; сирий жир-16,5%; сира клітковина-2,7%; волога-10,0%; сира зол-7,4%; кальцій-1,5%; фосфор-1,05%.&lt;/p&gt;
+&lt;strong&gt;Химический состав:&lt;/strong&gt; сырой протеин-26,5%; сырой жир-16,5%; сырая клетчатка-2,7%; влага 10,0%; сырая зол-7,4%; кальций-1,5%; фосфор-1,05%.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Основні добавки:&lt;/strong&gt; харчові добавки на 1 кг корму: вітамін А-15000 МО; вітамін Д3-1200 МО; вітамін Е-150 мг, мідь (сульфат міді II, пентагідрат)-10,0 мг; цинк (оксид цинку)-90,0 мг; цинк (хелат цинку з гідрату амінокислот)-45,0 мг; йод (кальцію йодид, зневоднений)-2,0 мг; селен (селеніт натрію)-0,2 мг.&lt;/p&gt;</t>
+&lt;strong&gt;Основные добавки:&lt;/strong&gt; пищевые добавки на 1 кг корма: витамин А-15000 МЕ витамин Д3-1200 МЕ витамин Е-150 мг, медь (сульфат меди II, пентагидрат) 10,0 мг цинк (оксид цинка) -90,0 мг цинк (хелат цинка из гидрата аминокислот) -45,0 мг йод (кальция йодид, обезвоженный) -2,0 мг селен (селенит натрия) -0,2 мг.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;table align="center" cellpadding="5"&gt;
 	&lt;tbody&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;&lt;strong&gt;Вага собаки (кг)&lt;/strong&gt;&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;&lt;strong&gt;Рекомендовані порції вказані на один день в грамах &lt;/strong&gt;&lt;/p&gt;
+			&lt;p&gt;&lt;strong&gt;Вес собаки (кг)&lt;/strong&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;&lt;strong&gt;Рекомендуемые порции указаны на один день в граммах &lt;/strong&gt;&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
@@ -2015,60 +2089,60 @@
     <t>Chicopee CNL Maxi Puppy Poultry &amp; Millet</t>
   </si>
   <si>
-    <t>великий</t>
-  </si>
-  <si>
-    <t>натуральні інгредієнти,зроблено в Німеччині,сильна мускулатура</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;для цуценят великих порід з птицею і просом&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;як основний та додатковий корм для цуценят до 12 місяців життя, великих порід.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Склад:&lt;/strong&gt; білок з м&amp;rsquo;яса птиці (дегідратований і гідролізований, 25%), просо (25%), кукурудза, жир свійської птиці, бурякова пульпа (без цукру), горох (дегідратований), льняне насіння (2,5%), дріжджі (дегідратовані, 0.5% маннан-олігосахарид 0.1% бета-глюкан), фосфат монокальцій, масло лосося (0,5%), хлорид натрію, хлорид калію, зкстракт зеленого губчатого молюска (0,1%).&lt;/p&gt;
+    <t>большой</t>
+  </si>
+  <si>
+    <t>натуральные ингредиенты,сделано в Германии,сильная мускулатура</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;для щенков крупных пород с птицей и просом&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;как основной и дополнительный корм для щенков до 12 месяцев жизни, больших пород.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Состав:&lt;/strong&gt; белок из мяса птицы (дегидратированный и гидролизованный, 25%), просо (25%), кукуруза, жир домашней птицы, свекольная пульпа (без сахара), горох (дегидратированный) , льняное семя (2,5%), дрожжи (дегидратированной, 0.5% маннан-олигосахарид 0.1% бета-глюкан), фосфат монокальций, масло лосося (0,5%), хлорид натрия, хлорид калия, зкстракт зеленого губчатого моллюска (0 , 1%).&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Хімічний склад:&lt;/strong&gt; сирий протеїн-24,0%; сирий жир-14,0%; сира клітковина-2,8%; волога-10,0%; сира зол-6,7%; кальцій-1,25%; фосфор-0,95%.&lt;/p&gt;
+&lt;strong&gt;Химический состав:&lt;/strong&gt; сырой протеин-24,0%; сырой жир-14,0%; сырая клетчатка-2,8%; влага 10,0%; сырая зол-6,7%; кальций-1,25%; фосфор-0,95%.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Основні добавки:&lt;/strong&gt; харчові добавки на 1 кг корму: вітамін А-16000 МО; вітамін Д3-1250 МО; вітамін Е-160 мг, мідь (сульфат міді II, пентагідрат)-10,0 мг; цинк (оксид цинку)-90,0 мг; цинк (хелат цинку з гідрату амінокислот)-45,0 мг; йод (кальцію йодид, зневоднений)-2,0 мг; селен (селеніт натрію)-0,2 мг.&lt;/p&gt;</t>
+&lt;strong&gt;Основные добавки:&lt;/strong&gt; пищевые добавки на 1 кг корма: витамин А-16000 МЕ витамин Д3-1250 МЕ витамин Е-160 мг, медь (сульфат меди II, пентагидрат) 10,0 мг цинк (оксид цинка) -90,0 мг цинк (хелат цинка из гидрата аминокислот) -45,0 мг йод (кальция йодид, обезвоженный) -2,0 мг селен (селенит натрия) -0,2 мг.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;table align="center" cellpadding="5"&gt;
 	&lt;tbody&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;Вага цуценяти (кг)&lt;/p&gt;
+			&lt;p&gt;Вес щенка (кг)&lt;/p&gt;
 			&lt;/td&gt;
 			&lt;td colspan="6" style="text-align:center"&gt;
-			&lt;p&gt;Рекомендовані порції вказані на один день в грамах&lt;/p&gt;
+			&lt;p&gt;Рекомендуемые порции указаны на один день в граммах&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;&amp;nbsp;&lt;/td&gt;
 			&lt;td colspan="6" style="text-align:center"&gt;
-			&lt;p&gt;Вік цуценяти&lt;/p&gt;
+			&lt;p&gt;Возраст щенка&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;&amp;nbsp;&lt;/td&gt;
 			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;2 місяця&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;3 місяця&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;4 місяця&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;5&amp;ndash;6 місяців&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;7&amp;ndash;9 місяців&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;10&amp;ndash;12 місяців&lt;/p&gt;
+			&lt;p&gt;2 месяца&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;3 месяца&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;4 месяца&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;5&amp;ndash;6 месяцев&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;7&amp;ndash;9 месяцев&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;10&amp;ndash;12 месяцев&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
@@ -2274,27 +2348,51 @@
     <t>Chicopee CNL Maxi Adult Poultry &amp; Millet</t>
   </si>
   <si>
-    <t>&lt;p&gt;для дорослих собак великих порід з птицею і просом&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;як основний та додатковий корм для дорослих собак від 1 року життя, великих порід (від 25 кг)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Склад: &lt;/strong&gt;білок з м&amp;rsquo;яса птиці (дегідратований і гідролізований, 27%), просо (23%), ячмінь, жир свійської птиці , кукурудза, бурякова пульпа (без цукру), горох (дегідратований), льняне насіння (2%), дріжджі (дегідратовані, 0.5% маннан-олігосахарид 0.1% бета-глюкан)), масло лосося (0,5%), карбонат кальцію, хлорид натрію, хлорид калію, фосфат монокальцій, зкстракт зеленого губчатого молюска (0,1%).&lt;/p&gt;
+    <t>&lt;p&gt;&lt;strong&gt;Classic Nature Line - новая линейка усовершенствованных рецептов, которые позволяют вашему домашнему любимцу оставаться здоровым и красивым. &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Не содержат пшеницы &lt;/strong&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Подходит для собак с чувствительным пищеварением и непереносимостью пшеницы. В корме сочетаются легкоусвояемые углеводы и белки.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Экстракт мидии &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Экстракт зеленого губчатого моллюска (новозеландского) содержит специальные компоненты, поддерживающие развитие сустава, усиливает их прочность.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Сильная иммунная система &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Наш иммунный комплекс представляет собой комбинацию маннан-олигосахоридив и &amp;beta;-глюканов. Он стабилизирует кишечную микрофлору и поддерживает иммунную систему.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Шелковистая шерсть &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Комплекс &amp;laquo;шелковистого пальто&amp;raquo; представляет собой сочетание высококачественного лососевого масла, натурального льняного семени и дрожжей. Они содержат важные компоненты, чтобы шерсть оставалась шелковистой, а кожа гладкой.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Антистарение&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Дополнительный витамин Е! Витамин Е является метаболическим активным антиоксидантом и может защитить клетки организма от вредного воздействия свободных радикалов.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Контроль веса &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Снижение содержания белка и жира способствует развитию оптимальной по своей природе характерной массы тела. Добавлены диетические волокна (сырое волокно) поддерживают подвижность кишечника и насыщение вашей собаки.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Энергия &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Повышенное содержание жира обеспечивает оптимальное количество энергии в концентрированной и легко усваиваемой форме, особенно для собак с особыми требованиями.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;для взрослых собак крупных пород с птицей и просом&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;как основной и дополнительный корм для взрослых собак от 1 года жизни, больших пород (от 25 кг)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Состав:&lt;/strong&gt; белок из мяса птицы (дегидратированный и гидролизованный, 27%), просо (23%), ячмень, жир домашней птицы, кукуруза, свекольная пульпа (без сахара), горох ( дегидратированный), льняное семя (2%), дрожжи (дегидратированной, 0.5% маннан-олигосахарид 0.1% бета-глюкан)), масло лосося (0,5%), карбонат кальция, хлорид натрия, хлорид калия, фосфат монокальций, зкстракт зеленого губчатого моллюска (0,1%).&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Хімічний склад:&lt;/strong&gt; сирий протеїн-25,0%; сирий жир-15,0%; сира клітковина-2,9%; волога-10,0%; сира зол-6,6%; кальцій-1,2%; фосфор-0,82%.&lt;/p&gt;
+&lt;strong&gt;Химический состав:&lt;/strong&gt; сырой протеин-25,0%; сырой жир 15,0%; сырая клетчатка 2,9%; влага 10,0%; сырая зол-6,6%; кальций-1,2%; фосфор-0,82%.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Основні добавки:&lt;/strong&gt; харчові добавки на 1 кг корму: вітамін А-15000 МО; вітамін Д3-1200 МО; вітамін Е-150 мг, мідь (сульфат міді II, пентагідрат)-10,0 мг; цинк (оксид цинку)-90,0 мг; цинк (хелат цинку з гідрату амінокислот)-45,0 мг; йод (кальцію йодид, зневоднений)-2,0 мг; селен (селеніт натрію)-0,2 мг&lt;/p&gt;</t>
+&lt;strong&gt;Основные добавки:&lt;/strong&gt; пищевые добавки на 1 кг корма: витамин А-15000 МЕ витамин Д3-1200 МЕ витамин Е-150 мг, медь (сульфат меди II, пентагидрат) 10,0 мг цинк (оксид цинка) -90,0 мг цинк (хелат цинка из гидрата аминокислот) -45,0 мг йод (кальция йодид, обезвоженный) -2,0 мг селен (селенит натрия) -0,2 мг&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;table align="center" cellpadding="5"&gt;
 	&lt;tbody&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;&lt;strong&gt;Вага собаки (кг)&lt;/strong&gt;&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;&lt;strong&gt;Рекомендовані порції вказані на один день в грамах &lt;/strong&gt;&lt;/p&gt;
+			&lt;p&gt;&lt;strong&gt;Вес собаки (кг)&lt;/strong&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;&lt;strong&gt;Рекомендуемые порции указаны на один день в граммах&lt;/strong&gt;&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
@@ -2412,24 +2510,48 @@
     <t>Chicopee CNL Adult Soft Salmon &amp; Rice</t>
   </si>
   <si>
-    <t>&lt;p&gt;для дорослих собак всіх порід з лососем і рисом&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Склад:&lt;/strong&gt; білок з м&amp;#39;яса птиці (дегідратований і гідролізований, 22%), кукурудза, ячмінь,&amp;nbsp; лосось (дerідратірованний, 10%), жир свійської птиці, рис (7%), льняне насіння (3%),&amp;nbsp; горох (дегідратований), дріжджі (дегідратовані, 0.5% маннан-олігосахарид 0.1% бета-глюкан), бурякова пульпа (без цукру), масло лосося (0,5%), хлорид натрію, хлорид калію, екстракт зеленого губчатого молюска (0.1% ).&lt;/p&gt;
+    <t>&lt;p&gt;&lt;strong&gt;Classic Nature Line - новая линейка усовершенствованных рецептов, которые позволяют вашему домашнему любимцу оставаться здоровым и красивым. &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Не содержат пшеницы &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Подходит для собак с чувствительным пищеварением и непереносимостью пшеницы. В корме сочетаются легкоусвояемые углеводы и белки.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Экстракт мидии &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Экстракт зеленого губчатого моллюска (новозеландского) содержит специальные компоненты, поддерживающие развитие сустава, усиливает их прочность.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Сильная иммунная система &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Наш иммунный комплекс представляет собой комбинацию маннан-олигосахоридив и &amp;beta;-глюканов. Он стабилизирует кишечную микрофлору и поддерживает иммунную систему.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Шелковистая шерсть &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Комплекс &amp;laquo;шелковистого пальто&amp;raquo; представляет собой сочетание высококачественного лососевого масла, натурального льняного семени и дрожжей. Они содержат важные компоненты, чтобы шерсть оставалась шелковистой, а кожа гладкой.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Антистарени&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Дополнительный витамин Е! Витамин Е является метаболическим активным антиоксидантом и может защитить клетки организма от вредного воздействия свободных радикалов.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Контроль веса &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Снижение содержания белка и жира способствует развитию оптимальной по своей природе характерной массы тела. Добавлены диетические волокна (сырое волокно) поддерживают подвижность кишечника и насыщение вашей собаки.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Энергия &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Повышенное содержание жира обеспечивает оптимальное количество энергии в концентрированной и легко усваиваемой форме, особенно для собак с особыми требованиями.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;для взрослых собак всех пород с лососем и рисом&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Состав:&lt;/strong&gt; белок из мяса птицы (дегидратированный и гидролизованный, 22%), кукуруза, ячмень, лосось (дerидратированний, 10%), жир домашней птицы, рис (7%), льняное семян (3%), горох (дегидратированный), дрожжи (дегидратированной, 0.5% маннан-олигосахарид 0.1% бета-глюкан), свекольная пульпа (без сахара), масло лосося (0,5%), хлорид натрия, хлорид калия, экстракт зеленого губчатого моллюска (0.1%).&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Хімічний склад:&lt;/strong&gt; протеїн 25.0%, вміст жиру 15.0%, сира клітковина 2.1%, волога 18.0%, сира зола 6.9%, кальцій 1.15%, фосфор 0.83%.&lt;/p&gt;
+&lt;strong&gt;Химический состав:&lt;/strong&gt; протеин 25.0%, содержание жира 15.0%, сырая клетчатка 2.1%, влага 18.0%, сырая зола 6.9%, кальций 1.15%, фосфор 0.83%.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Основні добавки:&lt;/strong&gt; харчові добавки на 1 кг корму: Вітамін А 15.000 ME, Вітамін Д3 1.200 ME, Вітамін Е 150 мг, мідь (у формі сульфату міді ІІ, пентагідрат) 10 мг, цинк (оксид цинку) 90 мг, цинк (хелат цинку з гідрату амінокислот) 45 мг, йод (кальцію йодид, зневоднений) 2 мг, селен (селеніт натрію) 0.2 мг&lt;/p&gt;</t>
+&lt;strong&gt;Основные добавки:&lt;/strong&gt; пищевые добавки на 1 кг корма Витамин А 15.000 ME, Витамин Д3 1.200 ME, витамин Е 150 мг, медь (в форме сульфата меди ИИ, пентагидрат) 10 мг, цинк (оксид цинка) 90 мг, цинк (хелат цинка из гидрата аминокислот) 45 мг, йод (кальция йодид, обезвоженный) 2 мг, селен (селенит натрия) 0.2 мг&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;table align="center" cellpadding="5"&gt;
 	&lt;tbody&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;&lt;strong&gt;Вага собаки (кг)&lt;/strong&gt;&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;&lt;strong&gt;Рекомендовані порції вказані на один день в грамах &lt;/strong&gt;&lt;/p&gt;
+			&lt;p&gt;&lt;strong&gt;Вес собаки (кг)&lt;/strong&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;&lt;strong&gt;Рекомендуемые порции указаны на один день в граммах&lt;/strong&gt;&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
@@ -2553,36 +2675,36 @@
     <t>20 кг</t>
   </si>
   <si>
-    <t>натуральні інгредієнти,зроблено в Німеччині,здорова шкіра і шерсть,правильне травлення,здорові зуби і порожнину рота</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Лінійка сухих кормів &lt;strong&gt;Chicopee Pro Nature Line&lt;/strong&gt; забезпечує оптимальний запас поживних речовин, що дозволяє знизити кількість денної норми годування і зменшити навантаження на шлунково-кишковий тракт.&lt;/p&gt;
+    <t>натуральные ингредиенты,сделано в Германии,здоровая кожа и шерсть,правильное пищеварение,здоровые зубы и полость рта</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Линейка сухих кормов &lt;strong&gt; Chicopee Pro Nature Line &lt;/strong&gt; обеспечивает оптимальный запас питательных веществ, что позволяет снизить количество дневной нормы кормления и уменьшить нагрузку на желудочно-кишечный тракт.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Розмір і структура гранул&lt;/strong&gt; раціонів стимулюють їх ретельне пережовування, що дозволяє в процесі прийому їжі видаляти наліт з зубів і ясен тварини.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Размер и структура гранул &lt;/strong&gt; рационов стимулируют их тщательное пережевывание, что позволяет в процессе приема пищи удалять налет с зубов и десен животного.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Висока якість і гарна засвоюваність білків&lt;/strong&gt; забезпечують організм амінокислотами, які необхідні для правильного розвитку м&amp;#39;язової маси.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Высокое качество и хорошая усвояемость белков &lt;/strong&gt; обеспечивают организм аминокислотами, которые необходимы для правильного развития мышечной массы.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Наявність в складі &lt;strong&gt;екстракту пивних дріжджів&lt;/strong&gt; забезпечують блиск і здоров&amp;#39;я шкіри. Важливі природні антиоксиданти, такі як вітамін Е, і особливі мікроелементи, такі як селен, захищають клітини організму і блокують дію вільних радикалів, захищаючи вміст клітини від руйнування, що не тільки покращує функціонування тканин і органів, а й є відмінною профілактикою старіння організму.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;як основний та додатковий корм для дорослих собак від 1 року життя, всіх порід, з чутливим травленням.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Склад:&lt;/strong&gt; Білок з м&amp;rsquo;яса птиці (висушений), ячмінь, пшениця, пшеничне борошно, просіяні пшеничні висівки, жир свійської птиці, кукурудза, білок з м&amp;rsquo;яса ягняти (висушений, 4%), рис (4%), рибне борошно, дріжджі (дегідратовані), горох (дегідратований), гідролізований білок, карбонат кальцію, хлорид натрію, хлорид калію.&lt;/p&gt;
+&lt;p&gt;Наличие в составе &lt;strong&gt; экстракта пивных дрожжей &lt;/strong&gt; обеспечивают блеск и здоровье кожи. Важные природные антиоксиданты, такие как витамин Е, и особые микроэлементы, такие как селен, защищают клетки организма и блокируют действие свободных радикалов, защищая содержимое клетки от разрушения, не только улучшает функционирование тканей и органов, но и является отличной профилактикой старения организма.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;как основной и дополнительный корм для взрослых собак от 1 года жизни, всех пород, с чувствительным пищеварением.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Состав:&lt;/strong&gt; Белок из мяса птицы (высушенный), ячмень, пшеница, пшеничная мука, просеянные пшеничные отруби, жир домашней птицы, кукуруза, белок из мяса ягненка (высушенный, 4% ), рис (4%), рыбная мука, дрожжи (дегидратированный), горох (дегидратированный), гидролизованный белок, карбонат кальция, хлорид натрия, хлорид калия.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Хімічний склад: &lt;/strong&gt;сирий протеїн-24%; сирий жир-10,0%; сира клітковина-2,5%; волога-10%; сира зола-6,0%; кальцій-1,3%; фосфор-0,9%.&lt;/p&gt;
+&lt;strong&gt;Химический состав:&lt;/strong&gt; сырой протеин 24%; сырой жир 10,0%; сырая клетчатка-2,5%; влага-10%; сырая зола-6,0%; кальций-1,3%; фосфор 0,9%.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Основні добавки:&lt;/strong&gt; Харчові добавки на 1 кг корму: вітамін А-12000 МО; вітамін Д3-1200 МО; вітамін Е-70 мг, мідь (сульфат міді II, пентагідрат)-10,0; цинк (оксид цинку)-70,0; йод (кальцію йодид, зневоднений)-2,0; селен (селеніт натрію)-0,2.&lt;/p&gt;</t>
+&lt;strong&gt;Основные добавки: &lt;/strong&gt; Пищевые добавки на 1 кг корма: витамин А-12000 МЕ витамин Д3-1200 МЕ витамин Е-70 мг, медь (сульфат меди II, пентагидрат) -10,0; цинк (оксид цинка) -70,0; йод (кальция йодид, обезвоженный) -2,0; селен (селенит натрия) -0,2.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;table align="center" cellpadding="5"&gt;
 	&lt;tbody&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;&lt;strong&gt;Вага собаки (кг)&lt;/strong&gt;&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;&lt;strong&gt;Рекомендовані порції вказані на один день в грамах &lt;/strong&gt;&lt;/p&gt;
+			&lt;p&gt;&lt;strong&gt;Вес собаки (кг)&lt;/strong&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;&lt;strong&gt;Рекомендуемые порции указаны на один день в граммах&lt;/strong&gt;&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
@@ -2691,36 +2813,27 @@
     <t>Chicopee PNL Adult</t>
   </si>
   <si>
-    <t>натуральні інгредієнти,зроблено в Німеччині,здорова шкіра і шерсть,правильне травлення</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Лінійка сухих кормів &lt;strong&gt;Chicopee Pro Nature Line&lt;/strong&gt; забезпечує оптимальний запас поживних речовин, що дозволяє знизити кількість денної норми годування і зменшити навантаження на шлунково-кишковий тракт.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Розмір і структура гранул &lt;/strong&gt;раціонів стимулюють їх ретельне пережовування, що дозволяє в процесі прийому їжі видаляти наліт з зубів і ясен тварини.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Висока якість і гарна засвоюваність білків &lt;/strong&gt;забезпечують організм амінокислотами, які необхідні для правильного розвитку м&amp;#39;язової маси.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Наявність в складі &lt;strong&gt;екстракту пивних дріжджів&lt;/strong&gt; забезпечують блиск і здоров&amp;#39;я шкіри. Важливі природні антиоксиданти, такі як вітамін Е, і особливі мікроелементи, такі як селен, захищають клітини організму і блокують дію вільних радикалів, захищаючи вміст клітини від руйнування, що не тільки покращує функціонування тканин і органів, а й є відмінною профілактикою старіння організму.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;для дорослих собак всіх порід з птахом&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Склад:&lt;/strong&gt; М&amp;rsquo;ясне борошно з протеїном з м&amp;rsquo;яса свійської птиці (висушене), пшениця, ячмінь, пшеничне борошно, кукурудза, тваринний жир, просіяні пшеничні висівки, бурякова пульпа (без цукру), рибне борошно, дріжджі (дегідратовані, 0.5%), хлорид натрію, гідролізований протеїн, рис, хлорид калію.&lt;/p&gt;
+    <t>натуральные ингредиенты,сделано в Германии,здоровая кожа и шерсть,правильное пищеварение</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;для взрослых собак всех пород с птицей&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Состав:&lt;/strong&gt; Мясная мука с протеином из мяса домашней птицы (высушенное), пшеница, ячмень, пшеничная мука, кукуруза, животный жир, просеянные пшеничные отруби, свекольная пульпа (без сахара) , рыбная мука, дрожжи (дегидратированной, 0.5%), хлорид натрия, гидролизованный протеин, рис, хлорид калия.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Хімічний склад:&lt;/strong&gt; сирий протеїн-23%; сирий жир-10,0%; сира клітковина-2,5%; волога-10%; сира зола-6,4%; кальцій-1,35%; фосфор-1,05%.&lt;/p&gt;
+&lt;strong&gt;Химический состав:&lt;/strong&gt; сырой протеин-23%; сырой жир 10,0%; сырая клетчатка-2,5%; влага-10%; сырая зола-6,4%; кальций-1,35%; фосфор-1,05%.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Основні добавки:&lt;/strong&gt; Харчові добавки на 1 кг корму: вітамін А-12000 МО; вітамін Д3-1200 МО; вітамін Е-70 мг, мідь (сульфат міді II, пентагідрат)-10,0; цинк (оксид цинку)-70,0; йод (кальцію йодид, зневоднений)-2,0; селен (селеніт натрію)-0,2.&lt;/p&gt;</t>
+&lt;strong&gt;Основные добавки:&lt;/strong&gt; Пищевые добавки на 1 кг корма: витамин А-12000 МЕ витамин Д3-1200 МЕ витамин Е-70 мг, медь (сульфат меди II, пентагидрат) -10,0; цинк (оксид цинка) -70,0; йод (кальция йодид, обезвоженный) -2,0; селен (селенит натрия) -0,2.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;table align="center" cellpadding="5"&gt;
 	&lt;tbody&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;&lt;strong&gt;Вага собаки (кг)&lt;/strong&gt;&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;&lt;strong&gt;Рекомендовані порції вказані на один день в грамах &lt;/strong&gt;&lt;/p&gt;
+			&lt;p&gt;&lt;strong&gt;Вес собаки (кг)&lt;/strong&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;&lt;strong&gt;Рекомендуемые порции указаны на один день в граммах&lt;/strong&gt;&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
@@ -2832,24 +2945,24 @@
     <t>Chicopee PNL Puppy Lamb&amp;Rice</t>
   </si>
   <si>
-    <t>міцні кістки і суглоби,натуральні інгредієнти,зроблено в Німеччині,сильний імунітет,здорова шкіра і шерсть,правильне травлення,здорові зуби і порожнину рота</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Склад: &lt;/strong&gt;Білок з м&amp;rsquo;яса птиці (висушений), рис (20%), ячмінь, кукурудза, жир свійської птиці, білок з м&amp;rsquo;яса ягняти (висушений, 5%), бурякова пульпа (без цукру), гідролізований білок, кукурудзяний протеїн, горох (дегідратований), дріжджі (дегідратовані), масло лосося, хлорид натрію, хлорид калію.&lt;/p&gt;
+    <t>крепкие кости и суставы,натуральные ингредиенты,сделано в Германии,сильный иммунитет,здоровая кожа и шерсть,правильное пищеварение,здоровые зубы и полость рта</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Состав:&lt;/strong&gt; Белок из мяса птицы (высушенный), рис (20%), ячмень, кукуруза, жир домашней птицы, белок из мяса ягненка (высушенный, 5%), свекольная пульпа (без сахара), гидролизованный белок, кукурузный протеин, горох (дегидратированный), дрожжи (дегидратированный), масло лосося, хлорид натрия, хлорид калия. &lt;!-- p--&gt;&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Хімічний склад:&lt;/strong&gt; сирий протеїн-26,0%; сирий жир-14,0%; сира клітковина-2,0%; волога-10,0%; сира зола-6,5%; кальцій-1,2%; фосфор-0,9%.&lt;/p&gt;
+&lt;strong&gt;Химический состав:&lt;/strong&gt; сырой протеин-26,0%; сырой жир-14,0%; сырая клетчатка-2,0%; влага 10,0%; сырая зола-6,5%; кальций-1,2%; фосфор 0,9%.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Основні добавки:&lt;/strong&gt; Харчові добавки на 1 кг корму: вітамін А-13000 МО; вітамін Д3-1300 МО; вітамін Е-170 мг, мідь (сульфат міді II, пентагідрат)-10,0 мг; цинк (оксид цинку)-70,0 мг ; цинк (хелат цинку з гідрату амінокислот)-45,0 мг; йод (кальцію йодид, зневоднений)-2,0 мг; селен (селеніт натрію)-0,2 мг.&lt;/p&gt;</t>
+&lt;strong&gt;Основные добавки:&lt;/strong&gt; Пищевые добавки на 1 кг корма: витамин А-13000 МЕ витамин Д3-1300 МЕ витамин Е-170 мг, медь (сульфат меди II, пентагидрат) 10,0 мг цинк (оксид цинка) -70,0 мг цинк (хелат цинка из гидрата аминокислот) -45,0 мг йод (кальция йодид, обезвоженный) -2,0 мг селен (селенит натрия) -0,2 мг.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;table align="center" cellpadding="5"&gt;
 	&lt;tbody&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;Вага цуценяти (кг)&lt;/p&gt;
+			&lt;p&gt;Вес щенка (кг)&lt;/p&gt;
 			&lt;/td&gt;
 			&lt;td colspan="6" style="text-align:center"&gt;
-			&lt;p&gt;Вік цуценяти&lt;/p&gt;
+			&lt;p&gt;Возраст щенка&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
@@ -2857,22 +2970,22 @@
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;&amp;nbsp;&lt;/td&gt;
 			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;2 місяця&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;3 місяця&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;4 місяця&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;5&amp;ndash;6 місяців&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;6&amp;ndash;9 місяців&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;9&amp;ndash;12 місяців&lt;/p&gt;
+			&lt;p&gt;2 месяца&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;3 месяца&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;4 месяца&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;5&amp;ndash;6 месяцев&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;6&amp;ndash;9 месяцев&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;9&amp;ndash;12 месяцев&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
@@ -3069,27 +3182,27 @@
     <t>Chicopee PNL Active</t>
   </si>
   <si>
-    <t>натуральні інгредієнти,зроблено в Німеччині,сильна мускулатура,сильний імунітет,правильне травлення</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;для дорослих активних собак всіх порід&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Склад:&lt;/strong&gt; М&amp;rsquo;ясне борошно з протеїном з м&amp;rsquo;яса свійської птиці (висушене), пшениця, тваринний жир, кукурудза, просіяні пшеничні висівки, ячмінь, рис, бурякова пульпа (без цукру), рибне борошно, дріжджі (дегідратовані), горох (дегідратований), гідролізований протеїн, хлорид натрію, хлорид калію.&lt;/p&gt;
+    <t>натуральные ингредиенты,сделано в Германии,сильная мускулатура,сильный иммунитет,правильное пищеварение</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;для взрослых активных собак всех пород&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Состав:&lt;/strong&gt; Мясная мука с протеином из мяса домашней птицы (высушенное), пшеница, животный жир, кукуруза, просеянные пшеничные отруби, ячмень, рис, свекольная пульпа (без сахара), рыбная мука, дрожжи (дегидратированный), горох (дегидратированный), гидролизованный протеин, хлорид натрия, хлорид калия.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Хімічний склад: &lt;/strong&gt;сирий протеїн 30.0%, сирий жир 20.0%, сира клітковина 2.3%, волога 10,0%, сира зола 7.3%, кальцій 1.45%, фосфор 1.05%.&lt;/p&gt;
+&lt;strong&gt;Химический состав:&lt;/strong&gt; сырой протеин 30.0%, сырой жир 20.0%, сырая клетчатка 2.3%, влага 10,0%, сырая зола 7.3%, кальций 1.45%, фосфор 1.05%.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;
-&lt;strong&gt;Основні добавки:&lt;/strong&gt; Харчові добавки на 1 кг корму: вітамін А-15000 МО; вітамін Д3-1200 МО; вітамін Е-150 мг, мідь (сульфат міді II, пентагідрат)-10,0 мг; цинк (оксид цинку)-90,0 мг; цинк (хелат цинку з гідрату амінокислот)-45,0 мг; йод (кальцію йодид, зневоднений)-2,0 мг; селен (селеніт натрію)-0,2 мг.&lt;/p&gt;</t>
+&lt;strong&gt;Основные добавки:&lt;/strong&gt; Пищевые добавки на 1 кг корма: витамин А-15000 МЕ витамин Д3-1200 МЕ витамин Е-150 мг, медь (сульфат меди II, пентагидрат) 10,0 мг цинк (оксид цинка) -90,0 мг цинк (хелат цинка из гидрата аминокислот) -45,0 мг йод (кальция йодид, обезвоженный) -2,0 мг селен (селенит натрия) -0,2 мг.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;table align="center" cellpadding="5"&gt;
 	&lt;tbody&gt;
 		&lt;tr&gt;
 			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;&lt;strong&gt;Вага собаки (кг)&lt;/strong&gt;&lt;/p&gt;
-			&lt;/td&gt;
-			&lt;td style="text-align:center"&gt;
-			&lt;p&gt;&lt;strong&gt;Рекомендовані порції вказані на один день в грамах (нормальна активність / підвищена активність) &lt;/strong&gt;&lt;/p&gt;
+			&lt;p&gt;&lt;strong&gt;Вес собаки (кг)&lt;/strong&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td style="text-align:center"&gt;
+			&lt;p&gt;&lt;strong&gt;Рекомендуемые порции указаны на один день в граммах (нормальная активность / повышенная активность)&lt;/strong&gt;&lt;/p&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
@@ -3666,39 +3779,33 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
         <v>35</v>
       </c>
       <c r="M5" t="s">
@@ -3715,39 +3822,33 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
         <v>35</v>
       </c>
       <c r="M7" t="s">
@@ -3780,7 +3881,7 @@
         <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8" t="s">
         <v>43</v>
@@ -3797,53 +3898,53 @@
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
         <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
         <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3851,7 +3952,7 @@
         <v>8296002</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -3860,39 +3961,39 @@
         <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -3900,7 +4001,7 @@
         <v>8294002</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -3909,47 +4010,47 @@
         <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="K14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -3958,47 +4059,47 @@
         <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
         <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -4007,39 +4108,39 @@
         <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L18" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M18" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M19" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -4047,7 +4148,7 @@
         <v>8297002</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
@@ -4056,28 +4157,28 @@
         <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H20" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="J20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L20" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M20" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -4085,18 +4186,18 @@
         <v>8297015</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M21" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
@@ -4105,47 +4206,47 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H22" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="I22" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J22" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K22" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L22" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="M22" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M23" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
@@ -4154,47 +4255,47 @@
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G24" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H24" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="I24" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J24" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K24" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L24" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M24" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M25" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
         <v>16</v>
@@ -4203,47 +4304,47 @@
         <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G26" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H26" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="I26" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J26" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K26" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M26" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M27" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
         <v>16</v>
@@ -4252,47 +4353,47 @@
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G28" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H28" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="J28" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K28" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L28" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M28" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M29" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D30" t="s">
         <v>16</v>
@@ -4301,47 +4402,47 @@
         <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="I30" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="J30" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K30" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L30" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M30" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M31" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
@@ -4350,82 +4451,82 @@
         <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
       </c>
       <c r="H32" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="I32" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="J32" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L32" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="M32" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M33" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D35" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E35" t="s">
         <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H35" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="I35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J35" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="K35" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="L35" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="M35" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -4433,75 +4534,75 @@
         <v>93033200</v>
       </c>
       <c r="C36" t="s">
+        <v>180</v>
+      </c>
+      <c r="D36" t="s">
         <v>173</v>
-      </c>
-      <c r="D36" t="s">
-        <v>166</v>
       </c>
       <c r="E36" t="s">
         <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H36" t="s">
         <v>175</v>
       </c>
       <c r="I36" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="J36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K36" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L36" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M36" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C37" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D37" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E37" t="s">
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H37" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="I37" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J37" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K37" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L37" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M37" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -4509,37 +4610,37 @@
         <v>58603200</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E38" t="s">
         <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H38" t="s">
         <v>175</v>
       </c>
       <c r="I38" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="J38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K38" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L38" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M38" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
